--- a/FuseLinks/ElosFranco.xlsx
+++ b/FuseLinks/ElosFranco.xlsx
@@ -537,29 +537,23 @@
           <t>1H</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F2" t="n">
+        <v>1.71139</v>
       </c>
       <c r="G2" t="n">
-        <v>14.7384</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>14.7204</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.71139</v>
       </c>
       <c r="I2" t="n">
-        <v>14.7384</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>14.7204</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1.71139</v>
       </c>
       <c r="K2" t="n">
-        <v>14.7384</v>
+        <v>14.7204</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -739,22 +733,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.70646</v>
+        <v>1.71139</v>
       </c>
       <c r="G5" t="n">
-        <v>14.7384</v>
+        <v>14.7204</v>
       </c>
       <c r="H5" t="n">
-        <v>1.70646</v>
+        <v>1.71139</v>
       </c>
       <c r="I5" t="n">
-        <v>14.7384</v>
+        <v>14.7204</v>
       </c>
       <c r="J5" t="n">
-        <v>1.70646</v>
+        <v>1.71139</v>
       </c>
       <c r="K5" t="n">
-        <v>14.7384</v>
+        <v>14.7204</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -867,22 +861,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.606483</v>
+        <v>0.608804</v>
       </c>
       <c r="G7" t="n">
-        <v>23.1418</v>
+        <v>23.1025</v>
       </c>
       <c r="H7" t="n">
-        <v>0.606483</v>
+        <v>0.608804</v>
       </c>
       <c r="I7" t="n">
-        <v>23.1418</v>
+        <v>23.1025</v>
       </c>
       <c r="J7" t="n">
-        <v>0.606483</v>
+        <v>0.608804</v>
       </c>
       <c r="K7" t="n">
-        <v>23.1418</v>
+        <v>23.1025</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -927,29 +921,23 @@
           <t>1H</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F8" t="n">
+        <v>1.8164</v>
       </c>
       <c r="G8" t="n">
-        <v>14.3716</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>14.3534</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.8164</v>
       </c>
       <c r="I8" t="n">
-        <v>14.3716</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>14.3534</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.8164</v>
       </c>
       <c r="K8" t="n">
-        <v>14.3716</v>
+        <v>14.3534</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -994,29 +982,23 @@
           <t>1H</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F9" t="n">
+        <v>1.96916</v>
       </c>
       <c r="G9" t="n">
-        <v>13.9113</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>13.8725</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.96916</v>
       </c>
       <c r="I9" t="n">
-        <v>13.9113</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>13.8725</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.96916</v>
       </c>
       <c r="K9" t="n">
-        <v>13.9113</v>
+        <v>13.8725</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -1062,22 +1044,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.606483</v>
+        <v>0.608803</v>
       </c>
       <c r="G10" t="n">
-        <v>23.1418</v>
+        <v>23.1025</v>
       </c>
       <c r="H10" t="n">
-        <v>0.606483</v>
+        <v>0.608803</v>
       </c>
       <c r="I10" t="n">
-        <v>23.1418</v>
+        <v>23.1025</v>
       </c>
       <c r="J10" t="n">
-        <v>0.606483</v>
+        <v>0.608803</v>
       </c>
       <c r="K10" t="n">
-        <v>23.1418</v>
+        <v>23.1025</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
@@ -1190,22 +1172,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.24552</v>
+        <v>1.24478</v>
       </c>
       <c r="G12" t="n">
-        <v>26.8927</v>
+        <v>26.9005</v>
       </c>
       <c r="H12" t="n">
-        <v>1.24552</v>
+        <v>1.24478</v>
       </c>
       <c r="I12" t="n">
-        <v>26.8927</v>
+        <v>26.9005</v>
       </c>
       <c r="J12" t="n">
-        <v>1.24552</v>
+        <v>1.24478</v>
       </c>
       <c r="K12" t="n">
-        <v>26.8927</v>
+        <v>26.9005</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -1250,29 +1232,23 @@
           <t>1H</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F13" t="n">
+        <v>3.52311</v>
       </c>
       <c r="G13" t="n">
-        <v>16.4036</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>16.3573</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.52311</v>
       </c>
       <c r="I13" t="n">
-        <v>16.4036</v>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>16.3573</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.52311</v>
       </c>
       <c r="K13" t="n">
-        <v>16.4036</v>
+        <v>16.3573</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
@@ -1317,29 +1293,23 @@
           <t>1H</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F14" t="n">
+        <v>3.8806</v>
       </c>
       <c r="G14" t="n">
-        <v>15.6298</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>15.6388</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.8806</v>
       </c>
       <c r="I14" t="n">
-        <v>15.6298</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>15.6388</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.8806</v>
       </c>
       <c r="K14" t="n">
-        <v>15.6298</v>
+        <v>15.6388</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
@@ -1385,22 +1355,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.24552</v>
+        <v>1.24478</v>
       </c>
       <c r="G15" t="n">
-        <v>26.8927</v>
+        <v>26.9004</v>
       </c>
       <c r="H15" t="n">
-        <v>1.24552</v>
+        <v>1.24478</v>
       </c>
       <c r="I15" t="n">
-        <v>26.8927</v>
+        <v>26.9004</v>
       </c>
       <c r="J15" t="n">
-        <v>1.24552</v>
+        <v>1.24478</v>
       </c>
       <c r="K15" t="n">
-        <v>26.8927</v>
+        <v>26.9004</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
@@ -1513,38 +1483,34 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.70539</v>
+        <v>3.72846</v>
       </c>
       <c r="G17" t="n">
-        <v>15.9775</v>
+        <v>15.9315</v>
       </c>
       <c r="H17" t="n">
-        <v>3.70539</v>
+        <v>3.72846</v>
       </c>
       <c r="I17" t="n">
-        <v>15.9775</v>
+        <v>15.9315</v>
       </c>
       <c r="J17" t="n">
-        <v>3.70539</v>
+        <v>3.72846</v>
       </c>
       <c r="K17" t="n">
-        <v>15.9775</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>15.9315</v>
+      </c>
+      <c r="L17" t="n">
+        <v>3.71064</v>
       </c>
       <c r="M17" t="n">
-        <v>16.001</v>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>15.967</v>
+      </c>
+      <c r="N17" t="n">
+        <v>3.73221</v>
       </c>
       <c r="O17" t="n">
-        <v>15.9361</v>
+        <v>15.9241</v>
       </c>
     </row>
     <row r="18">
@@ -1574,38 +1540,34 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.7053</v>
+        <v>3.72837</v>
       </c>
       <c r="G18" t="n">
-        <v>15.9777</v>
+        <v>15.9317</v>
       </c>
       <c r="H18" t="n">
-        <v>3.7053</v>
+        <v>3.72837</v>
       </c>
       <c r="I18" t="n">
-        <v>15.9777</v>
+        <v>15.9317</v>
       </c>
       <c r="J18" t="n">
-        <v>3.7053</v>
+        <v>3.72837</v>
       </c>
       <c r="K18" t="n">
-        <v>15.9777</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>15.9317</v>
+      </c>
+      <c r="L18" t="n">
+        <v>3.71076</v>
       </c>
       <c r="M18" t="n">
-        <v>16.0007</v>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>15.9668</v>
+      </c>
+      <c r="N18" t="n">
+        <v>3.73204</v>
       </c>
       <c r="O18" t="n">
-        <v>15.9364</v>
+        <v>15.9244</v>
       </c>
     </row>
     <row r="19">
@@ -1635,36 +1597,34 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.70564</v>
+        <v>3.72871</v>
       </c>
       <c r="G19" t="n">
-        <v>15.977</v>
+        <v>15.931</v>
       </c>
       <c r="H19" t="n">
-        <v>3.70564</v>
+        <v>3.72871</v>
       </c>
       <c r="I19" t="n">
-        <v>15.977</v>
+        <v>15.931</v>
       </c>
       <c r="J19" t="n">
-        <v>3.70564</v>
+        <v>3.72871</v>
       </c>
       <c r="K19" t="n">
-        <v>15.977</v>
+        <v>15.931</v>
       </c>
       <c r="L19" t="n">
-        <v>3.69357</v>
+        <v>3.71048</v>
       </c>
       <c r="M19" t="n">
-        <v>16.0013</v>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>15.9673</v>
+      </c>
+      <c r="N19" t="n">
+        <v>3.73201</v>
       </c>
       <c r="O19" t="n">
-        <v>15.9365</v>
+        <v>15.9245</v>
       </c>
     </row>
     <row r="20">
@@ -1694,38 +1654,34 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.70539</v>
+        <v>3.72846</v>
       </c>
       <c r="G20" t="n">
-        <v>15.9775</v>
+        <v>15.9315</v>
       </c>
       <c r="H20" t="n">
-        <v>3.70539</v>
+        <v>3.72846</v>
       </c>
       <c r="I20" t="n">
-        <v>15.9775</v>
+        <v>15.9315</v>
       </c>
       <c r="J20" t="n">
-        <v>3.70539</v>
+        <v>3.72846</v>
       </c>
       <c r="K20" t="n">
-        <v>15.9775</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>15.9315</v>
+      </c>
+      <c r="L20" t="n">
+        <v>3.71044</v>
       </c>
       <c r="M20" t="n">
-        <v>16.0014</v>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>15.9674</v>
+      </c>
+      <c r="N20" t="n">
+        <v>3.73233</v>
       </c>
       <c r="O20" t="n">
-        <v>15.9359</v>
+        <v>15.9239</v>
       </c>
     </row>
     <row r="21">
@@ -1754,43 +1710,35 @@
           <t>2H</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F21" t="n">
+        <v>3.72859</v>
       </c>
       <c r="G21" t="n">
-        <v>15.9773</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>15.9313</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3.72859</v>
       </c>
       <c r="I21" t="n">
-        <v>15.9773</v>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>15.9313</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3.72859</v>
       </c>
       <c r="K21" t="n">
-        <v>15.9773</v>
+        <v>15.9313</v>
       </c>
       <c r="L21" t="n">
-        <v>3.69353</v>
+        <v>3.71044</v>
       </c>
       <c r="M21" t="n">
-        <v>16.0014</v>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>15.9674</v>
+      </c>
+      <c r="N21" t="n">
+        <v>3.73201</v>
       </c>
       <c r="O21" t="n">
-        <v>15.9365</v>
+        <v>15.9245</v>
       </c>
     </row>
     <row r="22">
@@ -1820,38 +1768,34 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.12186</v>
+        <v>2.13443</v>
       </c>
       <c r="G22" t="n">
-        <v>20.8038</v>
+        <v>20.7449</v>
       </c>
       <c r="H22" t="n">
-        <v>2.12186</v>
+        <v>2.13443</v>
       </c>
       <c r="I22" t="n">
-        <v>20.8038</v>
+        <v>20.7449</v>
       </c>
       <c r="J22" t="n">
-        <v>2.12186</v>
+        <v>2.13443</v>
       </c>
       <c r="K22" t="n">
-        <v>20.8038</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>20.7449</v>
+      </c>
+      <c r="L22" t="n">
+        <v>2.12477</v>
       </c>
       <c r="M22" t="n">
-        <v>20.8368</v>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>20.7901</v>
+      </c>
+      <c r="N22" t="n">
+        <v>2.13571</v>
       </c>
       <c r="O22" t="n">
-        <v>20.7511</v>
+        <v>20.739</v>
       </c>
     </row>
     <row r="23">
@@ -1881,38 +1825,34 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.12183</v>
+        <v>2.13439</v>
       </c>
       <c r="G23" t="n">
-        <v>20.8039</v>
+        <v>20.7451</v>
       </c>
       <c r="H23" t="n">
-        <v>2.12183</v>
+        <v>2.13439</v>
       </c>
       <c r="I23" t="n">
-        <v>20.8039</v>
+        <v>20.7451</v>
       </c>
       <c r="J23" t="n">
-        <v>2.12183</v>
+        <v>2.13439</v>
       </c>
       <c r="K23" t="n">
-        <v>20.8039</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>20.7451</v>
+      </c>
+      <c r="L23" t="n">
+        <v>2.12482</v>
       </c>
       <c r="M23" t="n">
-        <v>20.8366</v>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>20.7899</v>
+      </c>
+      <c r="N23" t="n">
+        <v>2.13564</v>
       </c>
       <c r="O23" t="n">
-        <v>20.7514</v>
+        <v>20.7393</v>
       </c>
     </row>
     <row r="24">
@@ -1942,36 +1882,34 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.12194</v>
+        <v>2.1345</v>
       </c>
       <c r="G24" t="n">
-        <v>20.8034</v>
+        <v>20.7446</v>
       </c>
       <c r="H24" t="n">
-        <v>2.12194</v>
+        <v>2.1345</v>
       </c>
       <c r="I24" t="n">
-        <v>20.8034</v>
+        <v>20.7446</v>
       </c>
       <c r="J24" t="n">
-        <v>2.12194</v>
+        <v>2.1345</v>
       </c>
       <c r="K24" t="n">
-        <v>20.8034</v>
+        <v>20.7446</v>
       </c>
       <c r="L24" t="n">
-        <v>2.1148</v>
+        <v>2.1247</v>
       </c>
       <c r="M24" t="n">
-        <v>20.8371</v>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>20.7904</v>
+      </c>
+      <c r="N24" t="n">
+        <v>2.13562</v>
       </c>
       <c r="O24" t="n">
-        <v>20.7515</v>
+        <v>20.7394</v>
       </c>
     </row>
     <row r="25">
@@ -2001,38 +1939,34 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.12186</v>
+        <v>2.13443</v>
       </c>
       <c r="G25" t="n">
-        <v>20.8038</v>
+        <v>20.7449</v>
       </c>
       <c r="H25" t="n">
-        <v>2.12186</v>
+        <v>2.13443</v>
       </c>
       <c r="I25" t="n">
-        <v>20.8038</v>
+        <v>20.7449</v>
       </c>
       <c r="J25" t="n">
-        <v>2.12186</v>
+        <v>2.13443</v>
       </c>
       <c r="K25" t="n">
-        <v>20.8038</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>20.7449</v>
+      </c>
+      <c r="L25" t="n">
+        <v>2.12469</v>
       </c>
       <c r="M25" t="n">
-        <v>20.8372</v>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>20.7905</v>
+      </c>
+      <c r="N25" t="n">
+        <v>2.13576</v>
       </c>
       <c r="O25" t="n">
-        <v>20.7508</v>
+        <v>20.7387</v>
       </c>
     </row>
     <row r="26">
@@ -2062,36 +1996,34 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.1219</v>
+        <v>2.13446</v>
       </c>
       <c r="G26" t="n">
-        <v>20.8036</v>
+        <v>20.7448</v>
       </c>
       <c r="H26" t="n">
-        <v>2.1219</v>
+        <v>2.13446</v>
       </c>
       <c r="I26" t="n">
-        <v>20.8036</v>
+        <v>20.7448</v>
       </c>
       <c r="J26" t="n">
-        <v>2.1219</v>
+        <v>2.13446</v>
       </c>
       <c r="K26" t="n">
-        <v>20.8036</v>
+        <v>20.7448</v>
       </c>
       <c r="L26" t="n">
-        <v>2.11478</v>
+        <v>2.12469</v>
       </c>
       <c r="M26" t="n">
-        <v>20.8372</v>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>20.7905</v>
+      </c>
+      <c r="N26" t="n">
+        <v>2.13562</v>
       </c>
       <c r="O26" t="n">
-        <v>20.7515</v>
+        <v>20.7394</v>
       </c>
     </row>
     <row r="27">
@@ -2121,38 +2053,34 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.94095</v>
+        <v>1.95236</v>
       </c>
       <c r="G27" t="n">
-        <v>21.7139</v>
+        <v>21.6528</v>
       </c>
       <c r="H27" t="n">
-        <v>1.94095</v>
+        <v>1.95236</v>
       </c>
       <c r="I27" t="n">
-        <v>21.7139</v>
+        <v>21.6528</v>
       </c>
       <c r="J27" t="n">
-        <v>1.94095</v>
+        <v>1.95236</v>
       </c>
       <c r="K27" t="n">
-        <v>21.7139</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>21.6528</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.94363</v>
       </c>
       <c r="M27" t="n">
-        <v>21.7489</v>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>21.6995</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1.95335</v>
       </c>
       <c r="O27" t="n">
-        <v>21.6591</v>
+        <v>21.6475</v>
       </c>
     </row>
     <row r="28">
@@ -2182,36 +2110,34 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.94092</v>
+        <v>1.95232</v>
       </c>
       <c r="G28" t="n">
-        <v>21.7141</v>
+        <v>21.653</v>
       </c>
       <c r="H28" t="n">
-        <v>1.94092</v>
+        <v>1.95232</v>
       </c>
       <c r="I28" t="n">
-        <v>21.7141</v>
+        <v>21.653</v>
       </c>
       <c r="J28" t="n">
-        <v>1.94092</v>
+        <v>1.95232</v>
       </c>
       <c r="K28" t="n">
-        <v>21.7141</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>21.653</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.94367</v>
       </c>
       <c r="M28" t="n">
-        <v>21.7487</v>
+        <v>21.6993</v>
       </c>
       <c r="N28" t="n">
-        <v>1.95112</v>
+        <v>1.95329</v>
       </c>
       <c r="O28" t="n">
-        <v>21.6594</v>
+        <v>21.6478</v>
       </c>
     </row>
     <row r="29">
@@ -2241,36 +2167,34 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.94103</v>
+        <v>1.95243</v>
       </c>
       <c r="G29" t="n">
-        <v>21.7135</v>
+        <v>21.6524</v>
       </c>
       <c r="H29" t="n">
-        <v>1.94103</v>
+        <v>1.95243</v>
       </c>
       <c r="I29" t="n">
-        <v>21.7135</v>
+        <v>21.6524</v>
       </c>
       <c r="J29" t="n">
-        <v>1.94103</v>
+        <v>1.95243</v>
       </c>
       <c r="K29" t="n">
-        <v>21.7135</v>
+        <v>21.6524</v>
       </c>
       <c r="L29" t="n">
-        <v>1.9344</v>
+        <v>1.94357</v>
       </c>
       <c r="M29" t="n">
-        <v>21.7493</v>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>21.6998</v>
+      </c>
+      <c r="N29" t="n">
+        <v>1.95328</v>
       </c>
       <c r="O29" t="n">
-        <v>21.6595</v>
+        <v>21.6479</v>
       </c>
     </row>
     <row r="30">
@@ -2300,38 +2224,34 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.94095</v>
+        <v>1.95236</v>
       </c>
       <c r="G30" t="n">
-        <v>21.7139</v>
+        <v>21.6528</v>
       </c>
       <c r="H30" t="n">
-        <v>1.94095</v>
+        <v>1.95236</v>
       </c>
       <c r="I30" t="n">
-        <v>21.7139</v>
+        <v>21.6528</v>
       </c>
       <c r="J30" t="n">
-        <v>1.94095</v>
+        <v>1.95236</v>
       </c>
       <c r="K30" t="n">
-        <v>21.7139</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>21.6528</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.94356</v>
       </c>
       <c r="M30" t="n">
-        <v>21.7493</v>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>21.6999</v>
+      </c>
+      <c r="N30" t="n">
+        <v>1.95339</v>
       </c>
       <c r="O30" t="n">
-        <v>21.6589</v>
+        <v>21.6473</v>
       </c>
     </row>
     <row r="31">
@@ -2361,36 +2281,34 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.94099</v>
+        <v>1.95239</v>
       </c>
       <c r="G31" t="n">
-        <v>21.7137</v>
+        <v>21.6526</v>
       </c>
       <c r="H31" t="n">
-        <v>1.94099</v>
+        <v>1.95239</v>
       </c>
       <c r="I31" t="n">
-        <v>21.7137</v>
+        <v>21.6526</v>
       </c>
       <c r="J31" t="n">
-        <v>1.94099</v>
+        <v>1.95239</v>
       </c>
       <c r="K31" t="n">
-        <v>21.7137</v>
+        <v>21.6526</v>
       </c>
       <c r="L31" t="n">
-        <v>1.93439</v>
+        <v>1.94355</v>
       </c>
       <c r="M31" t="n">
-        <v>21.7493</v>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>21.6999</v>
+      </c>
+      <c r="N31" t="n">
+        <v>1.95327</v>
       </c>
       <c r="O31" t="n">
-        <v>21.6595</v>
+        <v>21.6479</v>
       </c>
     </row>
     <row r="32">
@@ -2425,7 +2343,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>31.522</v>
+        <v>31.4383</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -2433,7 +2351,7 @@
         </is>
       </c>
       <c r="I32" t="n">
-        <v>31.522</v>
+        <v>31.4383</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2441,7 +2359,7 @@
         </is>
       </c>
       <c r="K32" t="n">
-        <v>31.522</v>
+        <v>31.4383</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -2449,7 +2367,7 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>31.5794</v>
+        <v>31.5002</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2457,7 +2375,7 @@
         </is>
       </c>
       <c r="O32" t="n">
-        <v>31.4466</v>
+        <v>31.4422</v>
       </c>
     </row>
     <row r="33">
@@ -2492,7 +2410,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>31.5221</v>
+        <v>31.4384</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -2500,7 +2418,7 @@
         </is>
       </c>
       <c r="I33" t="n">
-        <v>31.5221</v>
+        <v>31.4384</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2508,7 +2426,7 @@
         </is>
       </c>
       <c r="K33" t="n">
-        <v>31.5221</v>
+        <v>31.4384</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -2516,7 +2434,7 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>31.5792</v>
+        <v>31.4999</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2524,7 +2442,7 @@
         </is>
       </c>
       <c r="O33" t="n">
-        <v>31.4469</v>
+        <v>31.4426</v>
       </c>
     </row>
     <row r="34">
@@ -2559,7 +2477,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>31.5217</v>
+        <v>31.438</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -2567,7 +2485,7 @@
         </is>
       </c>
       <c r="I34" t="n">
-        <v>31.5217</v>
+        <v>31.438</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2575,7 +2493,7 @@
         </is>
       </c>
       <c r="K34" t="n">
-        <v>31.5217</v>
+        <v>31.438</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -2583,7 +2501,7 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>31.5797</v>
+        <v>31.5005</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2591,7 +2509,7 @@
         </is>
       </c>
       <c r="O34" t="n">
-        <v>31.447</v>
+        <v>31.4426</v>
       </c>
     </row>
     <row r="35">
@@ -2626,7 +2544,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>31.522</v>
+        <v>31.4383</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -2634,7 +2552,7 @@
         </is>
       </c>
       <c r="I35" t="n">
-        <v>31.522</v>
+        <v>31.4383</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -2642,7 +2560,7 @@
         </is>
       </c>
       <c r="K35" t="n">
-        <v>31.522</v>
+        <v>31.4383</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -2650,7 +2568,7 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>31.5798</v>
+        <v>31.5005</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2658,7 +2576,7 @@
         </is>
       </c>
       <c r="O35" t="n">
-        <v>31.4464</v>
+        <v>31.442</v>
       </c>
     </row>
     <row r="36">
@@ -2693,7 +2611,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>31.5219</v>
+        <v>31.4382</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -2701,7 +2619,7 @@
         </is>
       </c>
       <c r="I36" t="n">
-        <v>31.5219</v>
+        <v>31.4382</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -2709,7 +2627,7 @@
         </is>
       </c>
       <c r="K36" t="n">
-        <v>31.5219</v>
+        <v>31.4382</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -2717,7 +2635,7 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>31.5798</v>
+        <v>31.5006</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2725,7 +2643,7 @@
         </is>
       </c>
       <c r="O36" t="n">
-        <v>31.447</v>
+        <v>31.4427</v>
       </c>
     </row>
     <row r="37">
@@ -2755,34 +2673,34 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.554795</v>
+        <v>0.558337</v>
       </c>
       <c r="G37" t="n">
-        <v>38.9391</v>
+        <v>38.8418</v>
       </c>
       <c r="H37" t="n">
-        <v>0.554795</v>
+        <v>0.558337</v>
       </c>
       <c r="I37" t="n">
-        <v>38.9391</v>
+        <v>38.8418</v>
       </c>
       <c r="J37" t="n">
-        <v>0.554795</v>
+        <v>0.558337</v>
       </c>
       <c r="K37" t="n">
-        <v>38.9391</v>
+        <v>38.8418</v>
       </c>
       <c r="L37" t="n">
-        <v>0.552049</v>
+        <v>0.555808</v>
       </c>
       <c r="M37" t="n">
-        <v>39.0151</v>
+        <v>38.9111</v>
       </c>
       <c r="N37" t="n">
-        <v>0.558002</v>
+        <v>0.5577490000000001</v>
       </c>
       <c r="O37" t="n">
-        <v>38.851</v>
+        <v>38.8579</v>
       </c>
     </row>
     <row r="38">
@@ -2812,34 +2730,34 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.554789</v>
+        <v>0.558331</v>
       </c>
       <c r="G38" t="n">
-        <v>38.9392</v>
+        <v>38.842</v>
       </c>
       <c r="H38" t="n">
-        <v>0.554789</v>
+        <v>0.558331</v>
       </c>
       <c r="I38" t="n">
-        <v>38.9392</v>
+        <v>38.842</v>
       </c>
       <c r="J38" t="n">
-        <v>0.554789</v>
+        <v>0.558331</v>
       </c>
       <c r="K38" t="n">
-        <v>38.9392</v>
+        <v>38.842</v>
       </c>
       <c r="L38" t="n">
-        <v>0.552056</v>
+        <v>0.555816</v>
       </c>
       <c r="M38" t="n">
-        <v>39.0149</v>
+        <v>38.9109</v>
       </c>
       <c r="N38" t="n">
-        <v>0.557989</v>
+        <v>0.557736</v>
       </c>
       <c r="O38" t="n">
-        <v>38.8513</v>
+        <v>38.8583</v>
       </c>
     </row>
     <row r="39">
@@ -2869,34 +2787,34 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.554803</v>
+        <v>0.558345</v>
       </c>
       <c r="G39" t="n">
-        <v>38.9388</v>
+        <v>38.8416</v>
       </c>
       <c r="H39" t="n">
-        <v>0.554803</v>
+        <v>0.558345</v>
       </c>
       <c r="I39" t="n">
-        <v>38.9388</v>
+        <v>38.8416</v>
       </c>
       <c r="J39" t="n">
-        <v>0.554803</v>
+        <v>0.558345</v>
       </c>
       <c r="K39" t="n">
-        <v>38.9388</v>
+        <v>38.8416</v>
       </c>
       <c r="L39" t="n">
-        <v>0.552036</v>
+        <v>0.555796</v>
       </c>
       <c r="M39" t="n">
-        <v>39.0154</v>
+        <v>38.9115</v>
       </c>
       <c r="N39" t="n">
-        <v>0.557988</v>
+        <v>0.557735</v>
       </c>
       <c r="O39" t="n">
-        <v>38.8514</v>
+        <v>38.8583</v>
       </c>
     </row>
     <row r="40">
@@ -2926,34 +2844,34 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.554795</v>
+        <v>0.558337</v>
       </c>
       <c r="G40" t="n">
-        <v>38.9391</v>
+        <v>38.8418</v>
       </c>
       <c r="H40" t="n">
-        <v>0.554795</v>
+        <v>0.558337</v>
       </c>
       <c r="I40" t="n">
-        <v>38.9391</v>
+        <v>38.8418</v>
       </c>
       <c r="J40" t="n">
-        <v>0.554795</v>
+        <v>0.558337</v>
       </c>
       <c r="K40" t="n">
-        <v>38.9391</v>
+        <v>38.8418</v>
       </c>
       <c r="L40" t="n">
-        <v>0.5520350000000001</v>
+        <v>0.555795</v>
       </c>
       <c r="M40" t="n">
-        <v>39.0155</v>
+        <v>38.9115</v>
       </c>
       <c r="N40" t="n">
-        <v>0.558009</v>
+        <v>0.557756</v>
       </c>
       <c r="O40" t="n">
-        <v>38.8508</v>
+        <v>38.8577</v>
       </c>
     </row>
     <row r="41">
@@ -2983,34 +2901,34 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.554797</v>
+        <v>0.558339</v>
       </c>
       <c r="G41" t="n">
-        <v>38.939</v>
+        <v>38.8418</v>
       </c>
       <c r="H41" t="n">
-        <v>0.554797</v>
+        <v>0.558339</v>
       </c>
       <c r="I41" t="n">
-        <v>38.939</v>
+        <v>38.8418</v>
       </c>
       <c r="J41" t="n">
-        <v>0.554797</v>
+        <v>0.558339</v>
       </c>
       <c r="K41" t="n">
-        <v>38.939</v>
+        <v>38.8418</v>
       </c>
       <c r="L41" t="n">
-        <v>0.552033</v>
+        <v>0.555793</v>
       </c>
       <c r="M41" t="n">
-        <v>39.0155</v>
+        <v>38.9116</v>
       </c>
       <c r="N41" t="n">
-        <v>0.557986</v>
+        <v>0.557733</v>
       </c>
       <c r="O41" t="n">
-        <v>38.8514</v>
+        <v>38.8583</v>
       </c>
     </row>
     <row r="42">
@@ -3040,34 +2958,34 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.452898</v>
+        <v>0.455626</v>
       </c>
       <c r="G42" t="n">
-        <v>42.2153</v>
+        <v>42.1133</v>
       </c>
       <c r="H42" t="n">
-        <v>0.452898</v>
+        <v>0.455626</v>
       </c>
       <c r="I42" t="n">
-        <v>42.2153</v>
+        <v>42.1133</v>
       </c>
       <c r="J42" t="n">
-        <v>0.452898</v>
+        <v>0.455626</v>
       </c>
       <c r="K42" t="n">
-        <v>42.2153</v>
+        <v>42.1133</v>
       </c>
       <c r="L42" t="n">
-        <v>0.450657</v>
+        <v>0.453717</v>
       </c>
       <c r="M42" t="n">
-        <v>42.2998</v>
+        <v>42.1846</v>
       </c>
       <c r="N42" t="n">
-        <v>0.455376</v>
+        <v>0.455016</v>
       </c>
       <c r="O42" t="n">
-        <v>42.1226</v>
+        <v>42.136</v>
       </c>
     </row>
     <row r="43">
@@ -3097,34 +3015,34 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.452894</v>
+        <v>0.455622</v>
       </c>
       <c r="G43" t="n">
-        <v>42.2154</v>
+        <v>42.1134</v>
       </c>
       <c r="H43" t="n">
-        <v>0.452894</v>
+        <v>0.455622</v>
       </c>
       <c r="I43" t="n">
-        <v>42.2154</v>
+        <v>42.1134</v>
       </c>
       <c r="J43" t="n">
-        <v>0.452894</v>
+        <v>0.455622</v>
       </c>
       <c r="K43" t="n">
-        <v>42.2154</v>
+        <v>42.1134</v>
       </c>
       <c r="L43" t="n">
-        <v>0.450662</v>
+        <v>0.453722</v>
       </c>
       <c r="M43" t="n">
-        <v>42.2996</v>
+        <v>42.1844</v>
       </c>
       <c r="N43" t="n">
-        <v>0.455366</v>
+        <v>0.455006</v>
       </c>
       <c r="O43" t="n">
-        <v>42.1229</v>
+        <v>42.1364</v>
       </c>
     </row>
     <row r="44">
@@ -3154,34 +3072,34 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.452903</v>
+        <v>0.455632</v>
       </c>
       <c r="G44" t="n">
-        <v>42.2151</v>
+        <v>42.1131</v>
       </c>
       <c r="H44" t="n">
-        <v>0.452903</v>
+        <v>0.455632</v>
       </c>
       <c r="I44" t="n">
-        <v>42.2151</v>
+        <v>42.1131</v>
       </c>
       <c r="J44" t="n">
-        <v>0.452903</v>
+        <v>0.455632</v>
       </c>
       <c r="K44" t="n">
-        <v>42.2151</v>
+        <v>42.1131</v>
       </c>
       <c r="L44" t="n">
-        <v>0.450648</v>
+        <v>0.453708</v>
       </c>
       <c r="M44" t="n">
-        <v>42.3002</v>
+        <v>42.1849</v>
       </c>
       <c r="N44" t="n">
-        <v>0.455366</v>
+        <v>0.455006</v>
       </c>
       <c r="O44" t="n">
-        <v>42.123</v>
+        <v>42.1364</v>
       </c>
     </row>
     <row r="45">
@@ -3211,34 +3129,34 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.452898</v>
+        <v>0.455626</v>
       </c>
       <c r="G45" t="n">
-        <v>42.2153</v>
+        <v>42.1133</v>
       </c>
       <c r="H45" t="n">
-        <v>0.452898</v>
+        <v>0.455626</v>
       </c>
       <c r="I45" t="n">
-        <v>42.2153</v>
+        <v>42.1133</v>
       </c>
       <c r="J45" t="n">
-        <v>0.452898</v>
+        <v>0.455626</v>
       </c>
       <c r="K45" t="n">
-        <v>42.2153</v>
+        <v>42.1133</v>
       </c>
       <c r="L45" t="n">
-        <v>0.450647</v>
+        <v>0.453707</v>
       </c>
       <c r="M45" t="n">
-        <v>42.3002</v>
+        <v>42.185</v>
       </c>
       <c r="N45" t="n">
-        <v>0.455381</v>
+        <v>0.455021</v>
       </c>
       <c r="O45" t="n">
-        <v>42.1224</v>
+        <v>42.1358</v>
       </c>
     </row>
     <row r="46">
@@ -3268,34 +3186,34 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.452899</v>
+        <v>0.455627</v>
       </c>
       <c r="G46" t="n">
-        <v>42.2153</v>
+        <v>42.1132</v>
       </c>
       <c r="H46" t="n">
-        <v>0.452899</v>
+        <v>0.455627</v>
       </c>
       <c r="I46" t="n">
-        <v>42.2153</v>
+        <v>42.1132</v>
       </c>
       <c r="J46" t="n">
-        <v>0.452899</v>
+        <v>0.455627</v>
       </c>
       <c r="K46" t="n">
-        <v>42.2153</v>
+        <v>42.1132</v>
       </c>
       <c r="L46" t="n">
-        <v>0.450645</v>
+        <v>0.453705</v>
       </c>
       <c r="M46" t="n">
-        <v>42.3003</v>
+        <v>42.185</v>
       </c>
       <c r="N46" t="n">
-        <v>0.455364</v>
+        <v>0.455004</v>
       </c>
       <c r="O46" t="n">
-        <v>42.123</v>
+        <v>42.1365</v>
       </c>
     </row>
     <row r="47">
@@ -3325,34 +3243,34 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.220415</v>
+        <v>0.220981</v>
       </c>
       <c r="G47" t="n">
-        <v>50.625</v>
+        <v>50.5144</v>
       </c>
       <c r="H47" t="n">
-        <v>0.220415</v>
+        <v>0.220981</v>
       </c>
       <c r="I47" t="n">
-        <v>50.625</v>
+        <v>50.5144</v>
       </c>
       <c r="J47" t="n">
-        <v>0.220415</v>
+        <v>0.220981</v>
       </c>
       <c r="K47" t="n">
-        <v>50.625</v>
+        <v>50.5144</v>
       </c>
       <c r="L47" t="n">
-        <v>0.219871</v>
+        <v>0.220609</v>
       </c>
       <c r="M47" t="n">
-        <v>50.7317</v>
+        <v>50.5869</v>
       </c>
       <c r="N47" t="n">
-        <v>0.220933</v>
+        <v>0.220757</v>
       </c>
       <c r="O47" t="n">
-        <v>50.5237</v>
+        <v>50.5581</v>
       </c>
     </row>
     <row r="48">
@@ -3382,34 +3300,34 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.220414</v>
+        <v>0.22098</v>
       </c>
       <c r="G48" t="n">
-        <v>50.6251</v>
+        <v>50.5145</v>
       </c>
       <c r="H48" t="n">
-        <v>0.220414</v>
+        <v>0.22098</v>
       </c>
       <c r="I48" t="n">
-        <v>50.6251</v>
+        <v>50.5145</v>
       </c>
       <c r="J48" t="n">
-        <v>0.220414</v>
+        <v>0.22098</v>
       </c>
       <c r="K48" t="n">
-        <v>50.6251</v>
+        <v>50.5145</v>
       </c>
       <c r="L48" t="n">
-        <v>0.219872</v>
+        <v>0.22061</v>
       </c>
       <c r="M48" t="n">
-        <v>50.7315</v>
+        <v>50.5867</v>
       </c>
       <c r="N48" t="n">
-        <v>0.220931</v>
+        <v>0.220755</v>
       </c>
       <c r="O48" t="n">
-        <v>50.524</v>
+        <v>50.5584</v>
       </c>
     </row>
     <row r="49">
@@ -3439,34 +3357,34 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.220416</v>
+        <v>0.220982</v>
       </c>
       <c r="G49" t="n">
-        <v>50.6248</v>
+        <v>50.5142</v>
       </c>
       <c r="H49" t="n">
-        <v>0.220416</v>
+        <v>0.220982</v>
       </c>
       <c r="I49" t="n">
-        <v>50.6248</v>
+        <v>50.5142</v>
       </c>
       <c r="J49" t="n">
-        <v>0.220416</v>
+        <v>0.220982</v>
       </c>
       <c r="K49" t="n">
-        <v>50.6248</v>
+        <v>50.5142</v>
       </c>
       <c r="L49" t="n">
-        <v>0.219869</v>
+        <v>0.220607</v>
       </c>
       <c r="M49" t="n">
-        <v>50.732</v>
+        <v>50.5873</v>
       </c>
       <c r="N49" t="n">
-        <v>0.220931</v>
+        <v>0.220755</v>
       </c>
       <c r="O49" t="n">
-        <v>50.5241</v>
+        <v>50.5584</v>
       </c>
     </row>
     <row r="50">
@@ -3496,34 +3414,34 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0.220415</v>
+        <v>0.220981</v>
       </c>
       <c r="G50" t="n">
-        <v>50.625</v>
+        <v>50.5144</v>
       </c>
       <c r="H50" t="n">
-        <v>0.220415</v>
+        <v>0.220981</v>
       </c>
       <c r="I50" t="n">
-        <v>50.625</v>
+        <v>50.5144</v>
       </c>
       <c r="J50" t="n">
-        <v>0.220415</v>
+        <v>0.220981</v>
       </c>
       <c r="K50" t="n">
-        <v>50.625</v>
+        <v>50.5144</v>
       </c>
       <c r="L50" t="n">
-        <v>0.219869</v>
+        <v>0.220607</v>
       </c>
       <c r="M50" t="n">
-        <v>50.732</v>
+        <v>50.5873</v>
       </c>
       <c r="N50" t="n">
-        <v>0.220934</v>
+        <v>0.220758</v>
       </c>
       <c r="O50" t="n">
-        <v>50.5235</v>
+        <v>50.5579</v>
       </c>
     </row>
     <row r="51">
@@ -3553,34 +3471,34 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0.220415</v>
+        <v>0.220981</v>
       </c>
       <c r="G51" t="n">
-        <v>50.625</v>
+        <v>50.5144</v>
       </c>
       <c r="H51" t="n">
-        <v>0.220415</v>
+        <v>0.220981</v>
       </c>
       <c r="I51" t="n">
-        <v>50.625</v>
+        <v>50.5144</v>
       </c>
       <c r="J51" t="n">
-        <v>0.220415</v>
+        <v>0.220981</v>
       </c>
       <c r="K51" t="n">
-        <v>50.625</v>
+        <v>50.5144</v>
       </c>
       <c r="L51" t="n">
-        <v>0.219869</v>
+        <v>0.220607</v>
       </c>
       <c r="M51" t="n">
-        <v>50.7321</v>
+        <v>50.5874</v>
       </c>
       <c r="N51" t="n">
-        <v>0.220931</v>
+        <v>0.220755</v>
       </c>
       <c r="O51" t="n">
-        <v>50.5241</v>
+        <v>50.5585</v>
       </c>
     </row>
     <row r="52">
@@ -3610,34 +3528,34 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>0.403618</v>
+        <v>0.404891</v>
       </c>
       <c r="G52" t="n">
-        <v>59.2767</v>
+        <v>59.1638</v>
       </c>
       <c r="H52" t="n">
-        <v>0.403618</v>
+        <v>0.404891</v>
       </c>
       <c r="I52" t="n">
-        <v>59.2767</v>
+        <v>59.1638</v>
       </c>
       <c r="J52" t="n">
-        <v>0.403618</v>
+        <v>0.404891</v>
       </c>
       <c r="K52" t="n">
-        <v>59.2767</v>
+        <v>59.1638</v>
       </c>
       <c r="L52" t="n">
-        <v>0.402173</v>
+        <v>0.404131</v>
       </c>
       <c r="M52" t="n">
-        <v>59.4059</v>
+        <v>59.2311</v>
       </c>
       <c r="N52" t="n">
-        <v>0.404793</v>
+        <v>0.404091</v>
       </c>
       <c r="O52" t="n">
-        <v>59.1725</v>
+        <v>59.2346</v>
       </c>
     </row>
     <row r="53">
@@ -3667,34 +3585,34 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0.403616</v>
+        <v>0.404889</v>
       </c>
       <c r="G53" t="n">
-        <v>59.2768</v>
+        <v>59.1639</v>
       </c>
       <c r="H53" t="n">
-        <v>0.403616</v>
+        <v>0.404889</v>
       </c>
       <c r="I53" t="n">
-        <v>59.2768</v>
+        <v>59.1639</v>
       </c>
       <c r="J53" t="n">
-        <v>0.403616</v>
+        <v>0.404889</v>
       </c>
       <c r="K53" t="n">
-        <v>59.2768</v>
+        <v>59.1639</v>
       </c>
       <c r="L53" t="n">
-        <v>0.402175</v>
+        <v>0.404133</v>
       </c>
       <c r="M53" t="n">
-        <v>59.4057</v>
+        <v>59.2309</v>
       </c>
       <c r="N53" t="n">
-        <v>0.404789</v>
+        <v>0.404087</v>
       </c>
       <c r="O53" t="n">
-        <v>59.1728</v>
+        <v>59.235</v>
       </c>
     </row>
     <row r="54">
@@ -3724,34 +3642,34 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>0.403619</v>
+        <v>0.404892</v>
       </c>
       <c r="G54" t="n">
-        <v>59.2766</v>
+        <v>59.1637</v>
       </c>
       <c r="H54" t="n">
-        <v>0.403619</v>
+        <v>0.404892</v>
       </c>
       <c r="I54" t="n">
-        <v>59.2766</v>
+        <v>59.1637</v>
       </c>
       <c r="J54" t="n">
-        <v>0.403619</v>
+        <v>0.404892</v>
       </c>
       <c r="K54" t="n">
-        <v>59.2766</v>
+        <v>59.1637</v>
       </c>
       <c r="L54" t="n">
-        <v>0.40217</v>
+        <v>0.404127</v>
       </c>
       <c r="M54" t="n">
-        <v>59.4062</v>
+        <v>59.2314</v>
       </c>
       <c r="N54" t="n">
-        <v>0.404789</v>
+        <v>0.404087</v>
       </c>
       <c r="O54" t="n">
-        <v>59.1728</v>
+        <v>59.235</v>
       </c>
     </row>
     <row r="55">
@@ -3781,34 +3699,34 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>0.403618</v>
+        <v>0.404891</v>
       </c>
       <c r="G55" t="n">
-        <v>59.2767</v>
+        <v>59.1638</v>
       </c>
       <c r="H55" t="n">
-        <v>0.403618</v>
+        <v>0.404891</v>
       </c>
       <c r="I55" t="n">
-        <v>59.2767</v>
+        <v>59.1638</v>
       </c>
       <c r="J55" t="n">
-        <v>0.403618</v>
+        <v>0.404891</v>
       </c>
       <c r="K55" t="n">
-        <v>59.2767</v>
+        <v>59.1638</v>
       </c>
       <c r="L55" t="n">
-        <v>0.40217</v>
+        <v>0.404127</v>
       </c>
       <c r="M55" t="n">
-        <v>59.4062</v>
+        <v>59.2314</v>
       </c>
       <c r="N55" t="n">
-        <v>0.404795</v>
+        <v>0.404093</v>
       </c>
       <c r="O55" t="n">
-        <v>59.1723</v>
+        <v>59.2345</v>
       </c>
     </row>
     <row r="56">
@@ -3838,34 +3756,34 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>0.403617</v>
+        <v>0.404891</v>
       </c>
       <c r="G56" t="n">
-        <v>59.2767</v>
+        <v>59.1638</v>
       </c>
       <c r="H56" t="n">
-        <v>0.403617</v>
+        <v>0.404891</v>
       </c>
       <c r="I56" t="n">
-        <v>59.2767</v>
+        <v>59.1638</v>
       </c>
       <c r="J56" t="n">
-        <v>0.403617</v>
+        <v>0.404891</v>
       </c>
       <c r="K56" t="n">
-        <v>59.2767</v>
+        <v>59.1638</v>
       </c>
       <c r="L56" t="n">
-        <v>0.402169</v>
+        <v>0.404126</v>
       </c>
       <c r="M56" t="n">
-        <v>59.4062</v>
+        <v>59.2315</v>
       </c>
       <c r="N56" t="n">
-        <v>0.404788</v>
+        <v>0.404086</v>
       </c>
       <c r="O56" t="n">
-        <v>59.1729</v>
+        <v>59.2351</v>
       </c>
     </row>
     <row r="57">
@@ -3895,34 +3813,34 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>0.36854</v>
+        <v>0.36954</v>
       </c>
       <c r="G57" t="n">
-        <v>62.7813</v>
+        <v>62.6696</v>
       </c>
       <c r="H57" t="n">
-        <v>0.36854</v>
+        <v>0.36954</v>
       </c>
       <c r="I57" t="n">
-        <v>62.7813</v>
+        <v>62.6696</v>
       </c>
       <c r="J57" t="n">
-        <v>0.36854</v>
+        <v>0.36954</v>
       </c>
       <c r="K57" t="n">
-        <v>62.7813</v>
+        <v>62.6696</v>
       </c>
       <c r="L57" t="n">
-        <v>0.367314</v>
+        <v>0.368974</v>
       </c>
       <c r="M57" t="n">
-        <v>62.9192</v>
+        <v>62.7327</v>
       </c>
       <c r="N57" t="n">
-        <v>0.369466</v>
+        <v>0.368793</v>
       </c>
       <c r="O57" t="n">
-        <v>62.6778</v>
+        <v>62.753</v>
       </c>
     </row>
     <row r="58">
@@ -3952,34 +3870,34 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>0.368539</v>
+        <v>0.369539</v>
       </c>
       <c r="G58" t="n">
-        <v>62.7814</v>
+        <v>62.6697</v>
       </c>
       <c r="H58" t="n">
-        <v>0.368539</v>
+        <v>0.369539</v>
       </c>
       <c r="I58" t="n">
-        <v>62.7814</v>
+        <v>62.6697</v>
       </c>
       <c r="J58" t="n">
-        <v>0.368539</v>
+        <v>0.369539</v>
       </c>
       <c r="K58" t="n">
-        <v>62.7814</v>
+        <v>62.6697</v>
       </c>
       <c r="L58" t="n">
-        <v>0.367315</v>
+        <v>0.368976</v>
       </c>
       <c r="M58" t="n">
-        <v>62.919</v>
+        <v>62.7325</v>
       </c>
       <c r="N58" t="n">
-        <v>0.369464</v>
+        <v>0.36879</v>
       </c>
       <c r="O58" t="n">
-        <v>62.6781</v>
+        <v>62.7533</v>
       </c>
     </row>
     <row r="59">
@@ -4009,34 +3927,34 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0.36854</v>
+        <v>0.369541</v>
       </c>
       <c r="G59" t="n">
-        <v>62.7812</v>
+        <v>62.6695</v>
       </c>
       <c r="H59" t="n">
-        <v>0.36854</v>
+        <v>0.369541</v>
       </c>
       <c r="I59" t="n">
-        <v>62.7812</v>
+        <v>62.6695</v>
       </c>
       <c r="J59" t="n">
-        <v>0.36854</v>
+        <v>0.369541</v>
       </c>
       <c r="K59" t="n">
-        <v>62.7812</v>
+        <v>62.6695</v>
       </c>
       <c r="L59" t="n">
-        <v>0.367311</v>
+        <v>0.368971</v>
       </c>
       <c r="M59" t="n">
-        <v>62.9195</v>
+        <v>62.733</v>
       </c>
       <c r="N59" t="n">
-        <v>0.369464</v>
+        <v>0.36879</v>
       </c>
       <c r="O59" t="n">
-        <v>62.6781</v>
+        <v>62.7533</v>
       </c>
     </row>
     <row r="60">
@@ -4066,34 +3984,34 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0.36854</v>
+        <v>0.36954</v>
       </c>
       <c r="G60" t="n">
-        <v>62.7813</v>
+        <v>62.6696</v>
       </c>
       <c r="H60" t="n">
-        <v>0.36854</v>
+        <v>0.36954</v>
       </c>
       <c r="I60" t="n">
-        <v>62.7813</v>
+        <v>62.6696</v>
       </c>
       <c r="J60" t="n">
-        <v>0.36854</v>
+        <v>0.36954</v>
       </c>
       <c r="K60" t="n">
-        <v>62.7813</v>
+        <v>62.6696</v>
       </c>
       <c r="L60" t="n">
-        <v>0.367311</v>
+        <v>0.368971</v>
       </c>
       <c r="M60" t="n">
-        <v>62.9195</v>
+        <v>62.733</v>
       </c>
       <c r="N60" t="n">
-        <v>0.369468</v>
+        <v>0.368794</v>
       </c>
       <c r="O60" t="n">
-        <v>62.6777</v>
+        <v>62.7528</v>
       </c>
     </row>
     <row r="61">
@@ -4123,34 +4041,34 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0.368539</v>
+        <v>0.36954</v>
       </c>
       <c r="G61" t="n">
-        <v>62.7813</v>
+        <v>62.6696</v>
       </c>
       <c r="H61" t="n">
-        <v>0.368539</v>
+        <v>0.36954</v>
       </c>
       <c r="I61" t="n">
-        <v>62.7813</v>
+        <v>62.6696</v>
       </c>
       <c r="J61" t="n">
-        <v>0.368539</v>
+        <v>0.36954</v>
       </c>
       <c r="K61" t="n">
-        <v>62.7813</v>
+        <v>62.6696</v>
       </c>
       <c r="L61" t="n">
-        <v>0.36731</v>
+        <v>0.368971</v>
       </c>
       <c r="M61" t="n">
-        <v>62.9196</v>
+        <v>62.7331</v>
       </c>
       <c r="N61" t="n">
-        <v>0.369463</v>
+        <v>0.368789</v>
       </c>
       <c r="O61" t="n">
-        <v>62.6782</v>
+        <v>62.7534</v>
       </c>
     </row>
     <row r="62">
@@ -4180,34 +4098,34 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>0.562457</v>
+        <v>0.5644940000000001</v>
       </c>
       <c r="G62" t="n">
-        <v>65.85899999999999</v>
+        <v>65.7495</v>
       </c>
       <c r="H62" t="n">
-        <v>0.562457</v>
+        <v>0.5644940000000001</v>
       </c>
       <c r="I62" t="n">
-        <v>65.85899999999999</v>
+        <v>65.7495</v>
       </c>
       <c r="J62" t="n">
-        <v>0.562457</v>
+        <v>0.5644940000000001</v>
       </c>
       <c r="K62" t="n">
-        <v>65.85899999999999</v>
+        <v>65.7495</v>
       </c>
       <c r="L62" t="n">
-        <v>0.559782</v>
+        <v>0.563407</v>
       </c>
       <c r="M62" t="n">
-        <v>66.0043</v>
+        <v>65.8078</v>
       </c>
       <c r="N62" t="n">
-        <v>0.56435</v>
+        <v>0.5627259999999999</v>
       </c>
       <c r="O62" t="n">
-        <v>65.7572</v>
+        <v>65.8445</v>
       </c>
     </row>
     <row r="63">
@@ -4237,34 +4155,34 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>0.562455</v>
+        <v>0.564492</v>
       </c>
       <c r="G63" t="n">
-        <v>65.8591</v>
+        <v>65.7496</v>
       </c>
       <c r="H63" t="n">
-        <v>0.562455</v>
+        <v>0.564492</v>
       </c>
       <c r="I63" t="n">
-        <v>65.8591</v>
+        <v>65.7496</v>
       </c>
       <c r="J63" t="n">
-        <v>0.562455</v>
+        <v>0.564492</v>
       </c>
       <c r="K63" t="n">
-        <v>65.8591</v>
+        <v>65.7496</v>
       </c>
       <c r="L63" t="n">
-        <v>0.559785</v>
+        <v>0.563411</v>
       </c>
       <c r="M63" t="n">
-        <v>66.00409999999999</v>
+        <v>65.80759999999999</v>
       </c>
       <c r="N63" t="n">
-        <v>0.564344</v>
+        <v>0.56272</v>
       </c>
       <c r="O63" t="n">
-        <v>65.75749999999999</v>
+        <v>65.84480000000001</v>
       </c>
     </row>
     <row r="64">
@@ -4294,34 +4212,34 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>0.562459</v>
+        <v>0.564495</v>
       </c>
       <c r="G64" t="n">
-        <v>65.85899999999999</v>
+        <v>65.74939999999999</v>
       </c>
       <c r="H64" t="n">
-        <v>0.562459</v>
+        <v>0.564495</v>
       </c>
       <c r="I64" t="n">
-        <v>65.85899999999999</v>
+        <v>65.74939999999999</v>
       </c>
       <c r="J64" t="n">
-        <v>0.562459</v>
+        <v>0.564495</v>
       </c>
       <c r="K64" t="n">
-        <v>65.85899999999999</v>
+        <v>65.74939999999999</v>
       </c>
       <c r="L64" t="n">
-        <v>0.5597760000000001</v>
+        <v>0.563402</v>
       </c>
       <c r="M64" t="n">
-        <v>66.0046</v>
+        <v>65.8081</v>
       </c>
       <c r="N64" t="n">
-        <v>0.564344</v>
+        <v>0.562721</v>
       </c>
       <c r="O64" t="n">
-        <v>65.75749999999999</v>
+        <v>65.84480000000001</v>
       </c>
     </row>
     <row r="65">
@@ -4351,34 +4269,34 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0.562457</v>
+        <v>0.5644940000000001</v>
       </c>
       <c r="G65" t="n">
-        <v>65.85899999999999</v>
+        <v>65.7495</v>
       </c>
       <c r="H65" t="n">
-        <v>0.562457</v>
+        <v>0.5644940000000001</v>
       </c>
       <c r="I65" t="n">
-        <v>65.85899999999999</v>
+        <v>65.7495</v>
       </c>
       <c r="J65" t="n">
-        <v>0.562457</v>
+        <v>0.5644940000000001</v>
       </c>
       <c r="K65" t="n">
-        <v>65.85899999999999</v>
+        <v>65.7495</v>
       </c>
       <c r="L65" t="n">
-        <v>0.5597760000000001</v>
+        <v>0.563401</v>
       </c>
       <c r="M65" t="n">
-        <v>66.0047</v>
+        <v>65.8081</v>
       </c>
       <c r="N65" t="n">
-        <v>0.564352</v>
+        <v>0.562729</v>
       </c>
       <c r="O65" t="n">
-        <v>65.75709999999999</v>
+        <v>65.84439999999999</v>
       </c>
     </row>
     <row r="66">
@@ -4408,34 +4326,34 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>0.562457</v>
+        <v>0.564493</v>
       </c>
       <c r="G66" t="n">
-        <v>65.8591</v>
+        <v>65.7495</v>
       </c>
       <c r="H66" t="n">
-        <v>0.562457</v>
+        <v>0.564493</v>
       </c>
       <c r="I66" t="n">
-        <v>65.8591</v>
+        <v>65.7495</v>
       </c>
       <c r="J66" t="n">
-        <v>0.562457</v>
+        <v>0.564493</v>
       </c>
       <c r="K66" t="n">
-        <v>65.8591</v>
+        <v>65.7495</v>
       </c>
       <c r="L66" t="n">
-        <v>0.559775</v>
+        <v>0.563401</v>
       </c>
       <c r="M66" t="n">
-        <v>66.0047</v>
+        <v>65.8082</v>
       </c>
       <c r="N66" t="n">
-        <v>0.564343</v>
+        <v>0.562719</v>
       </c>
       <c r="O66" t="n">
-        <v>65.7576</v>
+        <v>65.8449</v>
       </c>
     </row>
     <row r="67">
@@ -4465,34 +4383,34 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>0.843759</v>
+        <v>0.847301</v>
       </c>
       <c r="G67" t="n">
-        <v>70.9954</v>
+        <v>70.8918</v>
       </c>
       <c r="H67" t="n">
-        <v>0.843759</v>
+        <v>0.847301</v>
       </c>
       <c r="I67" t="n">
-        <v>70.9954</v>
+        <v>70.8918</v>
       </c>
       <c r="J67" t="n">
-        <v>0.843759</v>
+        <v>0.847301</v>
       </c>
       <c r="K67" t="n">
-        <v>70.9954</v>
+        <v>70.8918</v>
       </c>
       <c r="L67" t="n">
-        <v>0.838446</v>
+        <v>0.845652</v>
       </c>
       <c r="M67" t="n">
-        <v>71.1523</v>
+        <v>70.93989999999999</v>
       </c>
       <c r="N67" t="n">
-        <v>0.84707</v>
+        <v>0.843338</v>
       </c>
       <c r="O67" t="n">
-        <v>70.8986</v>
+        <v>71.0077</v>
       </c>
     </row>
     <row r="68">
@@ -4522,34 +4440,34 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>0.843756</v>
+        <v>0.847298</v>
       </c>
       <c r="G68" t="n">
-        <v>70.9954</v>
+        <v>70.89190000000001</v>
       </c>
       <c r="H68" t="n">
-        <v>0.843756</v>
+        <v>0.847298</v>
       </c>
       <c r="I68" t="n">
-        <v>70.9954</v>
+        <v>70.89190000000001</v>
       </c>
       <c r="J68" t="n">
-        <v>0.843756</v>
+        <v>0.847298</v>
       </c>
       <c r="K68" t="n">
-        <v>70.9954</v>
+        <v>70.89190000000001</v>
       </c>
       <c r="L68" t="n">
-        <v>0.838452</v>
+        <v>0.845658</v>
       </c>
       <c r="M68" t="n">
-        <v>71.1521</v>
+        <v>70.93980000000001</v>
       </c>
       <c r="N68" t="n">
-        <v>0.84706</v>
+        <v>0.843328</v>
       </c>
       <c r="O68" t="n">
-        <v>70.8989</v>
+        <v>71.008</v>
       </c>
     </row>
     <row r="69">
@@ -4579,34 +4497,34 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>0.843761</v>
+        <v>0.8473039999999999</v>
       </c>
       <c r="G69" t="n">
-        <v>70.9953</v>
+        <v>70.8918</v>
       </c>
       <c r="H69" t="n">
-        <v>0.843761</v>
+        <v>0.8473039999999999</v>
       </c>
       <c r="I69" t="n">
-        <v>70.9953</v>
+        <v>70.8918</v>
       </c>
       <c r="J69" t="n">
-        <v>0.843761</v>
+        <v>0.8473039999999999</v>
       </c>
       <c r="K69" t="n">
-        <v>70.9953</v>
+        <v>70.8918</v>
       </c>
       <c r="L69" t="n">
-        <v>0.838437</v>
+        <v>0.845642</v>
       </c>
       <c r="M69" t="n">
-        <v>71.1525</v>
+        <v>70.9402</v>
       </c>
       <c r="N69" t="n">
-        <v>0.847061</v>
+        <v>0.843329</v>
       </c>
       <c r="O69" t="n">
-        <v>70.89879999999999</v>
+        <v>71.008</v>
       </c>
     </row>
     <row r="70">
@@ -4636,34 +4554,34 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>0.843759</v>
+        <v>0.847301</v>
       </c>
       <c r="G70" t="n">
-        <v>70.9954</v>
+        <v>70.8918</v>
       </c>
       <c r="H70" t="n">
-        <v>0.843759</v>
+        <v>0.847301</v>
       </c>
       <c r="I70" t="n">
-        <v>70.9954</v>
+        <v>70.8918</v>
       </c>
       <c r="J70" t="n">
-        <v>0.843759</v>
+        <v>0.847301</v>
       </c>
       <c r="K70" t="n">
-        <v>70.9954</v>
+        <v>70.8918</v>
       </c>
       <c r="L70" t="n">
-        <v>0.838436</v>
+        <v>0.845641</v>
       </c>
       <c r="M70" t="n">
-        <v>71.15260000000001</v>
+        <v>70.9402</v>
       </c>
       <c r="N70" t="n">
-        <v>0.847074</v>
+        <v>0.843342</v>
       </c>
       <c r="O70" t="n">
-        <v>70.8985</v>
+        <v>71.0076</v>
       </c>
     </row>
     <row r="71">
@@ -4693,34 +4611,34 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>0.843758</v>
+        <v>0.847301</v>
       </c>
       <c r="G71" t="n">
-        <v>70.9954</v>
+        <v>70.89190000000001</v>
       </c>
       <c r="H71" t="n">
-        <v>0.843758</v>
+        <v>0.847301</v>
       </c>
       <c r="I71" t="n">
-        <v>70.9954</v>
+        <v>70.89190000000001</v>
       </c>
       <c r="J71" t="n">
-        <v>0.843758</v>
+        <v>0.847301</v>
       </c>
       <c r="K71" t="n">
-        <v>70.9954</v>
+        <v>70.89190000000001</v>
       </c>
       <c r="L71" t="n">
-        <v>0.838435</v>
+        <v>0.8456399999999999</v>
       </c>
       <c r="M71" t="n">
-        <v>71.15260000000001</v>
+        <v>70.94029999999999</v>
       </c>
       <c r="N71" t="n">
-        <v>0.847058</v>
+        <v>0.843325</v>
       </c>
       <c r="O71" t="n">
-        <v>70.8989</v>
+        <v>71.0081</v>
       </c>
     </row>
   </sheetData>
@@ -7056,43 +6974,35 @@
           <t>2H</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F35" t="n">
+        <v>3.72872</v>
       </c>
       <c r="G35" t="n">
-        <v>15.977</v>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>15.931</v>
+      </c>
+      <c r="H35" t="n">
+        <v>3.72872</v>
       </c>
       <c r="I35" t="n">
-        <v>15.977</v>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>15.931</v>
+      </c>
+      <c r="J35" t="n">
+        <v>3.72872</v>
       </c>
       <c r="K35" t="n">
-        <v>15.977</v>
+        <v>15.931</v>
       </c>
       <c r="L35" t="n">
-        <v>3.69333</v>
+        <v>3.71024</v>
       </c>
       <c r="M35" t="n">
-        <v>16.0017</v>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>15.9678</v>
+      </c>
+      <c r="N35" t="n">
+        <v>3.7318</v>
       </c>
       <c r="O35" t="n">
-        <v>15.9369</v>
+        <v>15.9249</v>
       </c>
     </row>
     <row r="36">
@@ -7121,43 +7031,35 @@
           <t>2H</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F36" t="n">
+        <v>3.72872</v>
       </c>
       <c r="G36" t="n">
-        <v>15.977</v>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>15.931</v>
+      </c>
+      <c r="H36" t="n">
+        <v>3.72872</v>
       </c>
       <c r="I36" t="n">
-        <v>15.977</v>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>15.931</v>
+      </c>
+      <c r="J36" t="n">
+        <v>3.72872</v>
       </c>
       <c r="K36" t="n">
-        <v>15.977</v>
+        <v>15.931</v>
       </c>
       <c r="L36" t="n">
-        <v>3.69333</v>
+        <v>3.71024</v>
       </c>
       <c r="M36" t="n">
-        <v>16.0017</v>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>15.9678</v>
+      </c>
+      <c r="N36" t="n">
+        <v>3.7318</v>
       </c>
       <c r="O36" t="n">
-        <v>15.9369</v>
+        <v>15.9249</v>
       </c>
     </row>
     <row r="37">
@@ -7186,43 +7088,35 @@
           <t>2H</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F37" t="n">
+        <v>3.72872</v>
       </c>
       <c r="G37" t="n">
-        <v>15.977</v>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>15.931</v>
+      </c>
+      <c r="H37" t="n">
+        <v>3.72872</v>
       </c>
       <c r="I37" t="n">
-        <v>15.977</v>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>15.931</v>
+      </c>
+      <c r="J37" t="n">
+        <v>3.72872</v>
       </c>
       <c r="K37" t="n">
-        <v>15.977</v>
+        <v>15.931</v>
       </c>
       <c r="L37" t="n">
-        <v>3.69333</v>
+        <v>3.71024</v>
       </c>
       <c r="M37" t="n">
-        <v>16.0017</v>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>15.9678</v>
+      </c>
+      <c r="N37" t="n">
+        <v>3.7318</v>
       </c>
       <c r="O37" t="n">
-        <v>15.9369</v>
+        <v>15.9249</v>
       </c>
     </row>
     <row r="38">
@@ -7251,43 +7145,35 @@
           <t>2H</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F38" t="n">
+        <v>3.72872</v>
       </c>
       <c r="G38" t="n">
-        <v>15.977</v>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>15.931</v>
+      </c>
+      <c r="H38" t="n">
+        <v>3.72872</v>
       </c>
       <c r="I38" t="n">
-        <v>15.977</v>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>15.931</v>
+      </c>
+      <c r="J38" t="n">
+        <v>3.72872</v>
       </c>
       <c r="K38" t="n">
-        <v>15.977</v>
+        <v>15.931</v>
       </c>
       <c r="L38" t="n">
-        <v>3.69333</v>
+        <v>3.71024</v>
       </c>
       <c r="M38" t="n">
-        <v>16.0017</v>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>15.9678</v>
+      </c>
+      <c r="N38" t="n">
+        <v>3.7318</v>
       </c>
       <c r="O38" t="n">
-        <v>15.9369</v>
+        <v>15.9249</v>
       </c>
     </row>
     <row r="39">
@@ -7316,43 +7202,35 @@
           <t>2H</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F39" t="n">
+        <v>3.72872</v>
       </c>
       <c r="G39" t="n">
-        <v>15.977</v>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>15.931</v>
+      </c>
+      <c r="H39" t="n">
+        <v>3.72872</v>
       </c>
       <c r="I39" t="n">
-        <v>15.977</v>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>15.931</v>
+      </c>
+      <c r="J39" t="n">
+        <v>3.72872</v>
       </c>
       <c r="K39" t="n">
-        <v>15.977</v>
+        <v>15.931</v>
       </c>
       <c r="L39" t="n">
-        <v>3.69333</v>
+        <v>3.71024</v>
       </c>
       <c r="M39" t="n">
-        <v>16.0017</v>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>15.9678</v>
+      </c>
+      <c r="N39" t="n">
+        <v>3.7318</v>
       </c>
       <c r="O39" t="n">
-        <v>15.9369</v>
+        <v>15.9249</v>
       </c>
     </row>
     <row r="40">
@@ -7381,43 +7259,35 @@
           <t>2H</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F40" t="n">
+        <v>3.72872</v>
       </c>
       <c r="G40" t="n">
-        <v>15.977</v>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>15.931</v>
+      </c>
+      <c r="H40" t="n">
+        <v>3.72872</v>
       </c>
       <c r="I40" t="n">
-        <v>15.977</v>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>15.931</v>
+      </c>
+      <c r="J40" t="n">
+        <v>3.72872</v>
       </c>
       <c r="K40" t="n">
-        <v>15.977</v>
+        <v>15.931</v>
       </c>
       <c r="L40" t="n">
-        <v>3.69333</v>
+        <v>3.71024</v>
       </c>
       <c r="M40" t="n">
-        <v>16.0017</v>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>15.9678</v>
+      </c>
+      <c r="N40" t="n">
+        <v>3.7318</v>
       </c>
       <c r="O40" t="n">
-        <v>15.9369</v>
+        <v>15.9249</v>
       </c>
     </row>
     <row r="41">
@@ -7446,43 +7316,35 @@
           <t>2H</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F41" t="n">
+        <v>3.72872</v>
       </c>
       <c r="G41" t="n">
-        <v>15.977</v>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>15.931</v>
+      </c>
+      <c r="H41" t="n">
+        <v>3.72872</v>
       </c>
       <c r="I41" t="n">
-        <v>15.977</v>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>15.931</v>
+      </c>
+      <c r="J41" t="n">
+        <v>3.72872</v>
       </c>
       <c r="K41" t="n">
-        <v>15.977</v>
+        <v>15.931</v>
       </c>
       <c r="L41" t="n">
-        <v>3.69333</v>
+        <v>3.71024</v>
       </c>
       <c r="M41" t="n">
-        <v>16.0017</v>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>15.9678</v>
+      </c>
+      <c r="N41" t="n">
+        <v>3.7318</v>
       </c>
       <c r="O41" t="n">
-        <v>15.9369</v>
+        <v>15.9249</v>
       </c>
     </row>
     <row r="42">
@@ -7511,43 +7373,35 @@
           <t>2H</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F42" t="n">
+        <v>3.72872</v>
       </c>
       <c r="G42" t="n">
-        <v>15.977</v>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>15.931</v>
+      </c>
+      <c r="H42" t="n">
+        <v>3.72872</v>
       </c>
       <c r="I42" t="n">
-        <v>15.977</v>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>15.931</v>
+      </c>
+      <c r="J42" t="n">
+        <v>3.72872</v>
       </c>
       <c r="K42" t="n">
-        <v>15.977</v>
+        <v>15.931</v>
       </c>
       <c r="L42" t="n">
-        <v>3.69333</v>
+        <v>3.71024</v>
       </c>
       <c r="M42" t="n">
-        <v>16.0017</v>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>15.9678</v>
+      </c>
+      <c r="N42" t="n">
+        <v>3.7318</v>
       </c>
       <c r="O42" t="n">
-        <v>15.9369</v>
+        <v>15.9249</v>
       </c>
     </row>
     <row r="43">
@@ -7576,43 +7430,35 @@
           <t>2H</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F43" t="n">
+        <v>3.72872</v>
       </c>
       <c r="G43" t="n">
-        <v>15.977</v>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>15.931</v>
+      </c>
+      <c r="H43" t="n">
+        <v>3.72872</v>
       </c>
       <c r="I43" t="n">
-        <v>15.977</v>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>15.931</v>
+      </c>
+      <c r="J43" t="n">
+        <v>3.72872</v>
       </c>
       <c r="K43" t="n">
-        <v>15.977</v>
+        <v>15.931</v>
       </c>
       <c r="L43" t="n">
-        <v>3.69333</v>
+        <v>3.71024</v>
       </c>
       <c r="M43" t="n">
-        <v>16.0017</v>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>15.9678</v>
+      </c>
+      <c r="N43" t="n">
+        <v>3.7318</v>
       </c>
       <c r="O43" t="n">
-        <v>15.9369</v>
+        <v>15.9249</v>
       </c>
     </row>
     <row r="44">
@@ -7641,43 +7487,35 @@
           <t>2H</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F44" t="n">
+        <v>3.72872</v>
       </c>
       <c r="G44" t="n">
-        <v>15.977</v>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>15.931</v>
+      </c>
+      <c r="H44" t="n">
+        <v>3.72872</v>
       </c>
       <c r="I44" t="n">
-        <v>15.977</v>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>15.931</v>
+      </c>
+      <c r="J44" t="n">
+        <v>3.72872</v>
       </c>
       <c r="K44" t="n">
-        <v>15.977</v>
+        <v>15.931</v>
       </c>
       <c r="L44" t="n">
-        <v>3.69333</v>
+        <v>3.71024</v>
       </c>
       <c r="M44" t="n">
-        <v>16.0017</v>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>15.9678</v>
+      </c>
+      <c r="N44" t="n">
+        <v>3.7318</v>
       </c>
       <c r="O44" t="n">
-        <v>15.9369</v>
+        <v>15.9249</v>
       </c>
     </row>
     <row r="45">
@@ -7706,43 +7544,35 @@
           <t>2H</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F45" t="n">
+        <v>3.72872</v>
       </c>
       <c r="G45" t="n">
-        <v>15.977</v>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>15.931</v>
+      </c>
+      <c r="H45" t="n">
+        <v>3.72872</v>
       </c>
       <c r="I45" t="n">
-        <v>15.977</v>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>15.931</v>
+      </c>
+      <c r="J45" t="n">
+        <v>3.72872</v>
       </c>
       <c r="K45" t="n">
-        <v>15.977</v>
+        <v>15.931</v>
       </c>
       <c r="L45" t="n">
-        <v>3.69333</v>
+        <v>3.71024</v>
       </c>
       <c r="M45" t="n">
-        <v>16.0017</v>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>15.9678</v>
+      </c>
+      <c r="N45" t="n">
+        <v>3.7318</v>
       </c>
       <c r="O45" t="n">
-        <v>15.9369</v>
+        <v>15.9249</v>
       </c>
     </row>
     <row r="46">
@@ -7772,36 +7602,34 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.12193</v>
+        <v>2.1345</v>
       </c>
       <c r="G46" t="n">
-        <v>20.8034</v>
+        <v>20.7446</v>
       </c>
       <c r="H46" t="n">
-        <v>2.12193</v>
+        <v>2.1345</v>
       </c>
       <c r="I46" t="n">
-        <v>20.8034</v>
+        <v>20.7446</v>
       </c>
       <c r="J46" t="n">
-        <v>2.12193</v>
+        <v>2.1345</v>
       </c>
       <c r="K46" t="n">
-        <v>20.8034</v>
+        <v>20.7446</v>
       </c>
       <c r="L46" t="n">
-        <v>2.1147</v>
+        <v>2.1246</v>
       </c>
       <c r="M46" t="n">
-        <v>20.8376</v>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>20.7909</v>
+      </c>
+      <c r="N46" t="n">
+        <v>2.13554</v>
       </c>
       <c r="O46" t="n">
-        <v>20.7519</v>
+        <v>20.7398</v>
       </c>
     </row>
     <row r="47">
@@ -7831,36 +7659,34 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2.12193</v>
+        <v>2.1345</v>
       </c>
       <c r="G47" t="n">
-        <v>20.8034</v>
+        <v>20.7446</v>
       </c>
       <c r="H47" t="n">
-        <v>2.12193</v>
+        <v>2.1345</v>
       </c>
       <c r="I47" t="n">
-        <v>20.8034</v>
+        <v>20.7446</v>
       </c>
       <c r="J47" t="n">
-        <v>2.12193</v>
+        <v>2.1345</v>
       </c>
       <c r="K47" t="n">
-        <v>20.8034</v>
+        <v>20.7446</v>
       </c>
       <c r="L47" t="n">
-        <v>2.1147</v>
+        <v>2.1246</v>
       </c>
       <c r="M47" t="n">
-        <v>20.8376</v>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>20.7909</v>
+      </c>
+      <c r="N47" t="n">
+        <v>2.13554</v>
       </c>
       <c r="O47" t="n">
-        <v>20.7519</v>
+        <v>20.7398</v>
       </c>
     </row>
     <row r="48">
@@ -7890,36 +7716,34 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2.12193</v>
+        <v>2.1345</v>
       </c>
       <c r="G48" t="n">
-        <v>20.8034</v>
+        <v>20.7446</v>
       </c>
       <c r="H48" t="n">
-        <v>2.12193</v>
+        <v>2.1345</v>
       </c>
       <c r="I48" t="n">
-        <v>20.8034</v>
+        <v>20.7446</v>
       </c>
       <c r="J48" t="n">
-        <v>2.12193</v>
+        <v>2.1345</v>
       </c>
       <c r="K48" t="n">
-        <v>20.8034</v>
+        <v>20.7446</v>
       </c>
       <c r="L48" t="n">
-        <v>2.1147</v>
+        <v>2.1246</v>
       </c>
       <c r="M48" t="n">
-        <v>20.8376</v>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>20.7909</v>
+      </c>
+      <c r="N48" t="n">
+        <v>2.13554</v>
       </c>
       <c r="O48" t="n">
-        <v>20.7519</v>
+        <v>20.7398</v>
       </c>
     </row>
     <row r="49">
@@ -7949,36 +7773,34 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2.12193</v>
+        <v>2.1345</v>
       </c>
       <c r="G49" t="n">
-        <v>20.8034</v>
+        <v>20.7446</v>
       </c>
       <c r="H49" t="n">
-        <v>2.12193</v>
+        <v>2.1345</v>
       </c>
       <c r="I49" t="n">
-        <v>20.8034</v>
+        <v>20.7446</v>
       </c>
       <c r="J49" t="n">
-        <v>2.12193</v>
+        <v>2.1345</v>
       </c>
       <c r="K49" t="n">
-        <v>20.8034</v>
+        <v>20.7446</v>
       </c>
       <c r="L49" t="n">
-        <v>2.1147</v>
+        <v>2.1246</v>
       </c>
       <c r="M49" t="n">
-        <v>20.8376</v>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>20.7909</v>
+      </c>
+      <c r="N49" t="n">
+        <v>2.13554</v>
       </c>
       <c r="O49" t="n">
-        <v>20.7519</v>
+        <v>20.7398</v>
       </c>
     </row>
     <row r="50">
@@ -8008,36 +7830,34 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2.12193</v>
+        <v>2.1345</v>
       </c>
       <c r="G50" t="n">
-        <v>20.8034</v>
+        <v>20.7446</v>
       </c>
       <c r="H50" t="n">
-        <v>2.12193</v>
+        <v>2.1345</v>
       </c>
       <c r="I50" t="n">
-        <v>20.8034</v>
+        <v>20.7446</v>
       </c>
       <c r="J50" t="n">
-        <v>2.12193</v>
+        <v>2.1345</v>
       </c>
       <c r="K50" t="n">
-        <v>20.8034</v>
+        <v>20.7446</v>
       </c>
       <c r="L50" t="n">
-        <v>2.1147</v>
+        <v>2.1246</v>
       </c>
       <c r="M50" t="n">
-        <v>20.8376</v>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>20.7909</v>
+      </c>
+      <c r="N50" t="n">
+        <v>2.13554</v>
       </c>
       <c r="O50" t="n">
-        <v>20.7519</v>
+        <v>20.7398</v>
       </c>
     </row>
     <row r="51">
@@ -8067,36 +7887,34 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2.12193</v>
+        <v>2.1345</v>
       </c>
       <c r="G51" t="n">
-        <v>20.8034</v>
+        <v>20.7446</v>
       </c>
       <c r="H51" t="n">
-        <v>2.12193</v>
+        <v>2.1345</v>
       </c>
       <c r="I51" t="n">
-        <v>20.8034</v>
+        <v>20.7446</v>
       </c>
       <c r="J51" t="n">
-        <v>2.12193</v>
+        <v>2.1345</v>
       </c>
       <c r="K51" t="n">
-        <v>20.8034</v>
+        <v>20.7446</v>
       </c>
       <c r="L51" t="n">
-        <v>2.1147</v>
+        <v>2.1246</v>
       </c>
       <c r="M51" t="n">
-        <v>20.8376</v>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>20.7909</v>
+      </c>
+      <c r="N51" t="n">
+        <v>2.13554</v>
       </c>
       <c r="O51" t="n">
-        <v>20.7519</v>
+        <v>20.7398</v>
       </c>
     </row>
     <row r="52">
@@ -8126,36 +7944,34 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2.12193</v>
+        <v>2.1345</v>
       </c>
       <c r="G52" t="n">
-        <v>20.8034</v>
+        <v>20.7446</v>
       </c>
       <c r="H52" t="n">
-        <v>2.12193</v>
+        <v>2.1345</v>
       </c>
       <c r="I52" t="n">
-        <v>20.8034</v>
+        <v>20.7446</v>
       </c>
       <c r="J52" t="n">
-        <v>2.12193</v>
+        <v>2.1345</v>
       </c>
       <c r="K52" t="n">
-        <v>20.8034</v>
+        <v>20.7446</v>
       </c>
       <c r="L52" t="n">
-        <v>2.1147</v>
+        <v>2.1246</v>
       </c>
       <c r="M52" t="n">
-        <v>20.8376</v>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>20.7909</v>
+      </c>
+      <c r="N52" t="n">
+        <v>2.13554</v>
       </c>
       <c r="O52" t="n">
-        <v>20.7519</v>
+        <v>20.7398</v>
       </c>
     </row>
     <row r="53">
@@ -8185,36 +8001,34 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2.12193</v>
+        <v>2.1345</v>
       </c>
       <c r="G53" t="n">
-        <v>20.8034</v>
+        <v>20.7446</v>
       </c>
       <c r="H53" t="n">
-        <v>2.12193</v>
+        <v>2.1345</v>
       </c>
       <c r="I53" t="n">
-        <v>20.8034</v>
+        <v>20.7446</v>
       </c>
       <c r="J53" t="n">
-        <v>2.12193</v>
+        <v>2.1345</v>
       </c>
       <c r="K53" t="n">
-        <v>20.8034</v>
+        <v>20.7446</v>
       </c>
       <c r="L53" t="n">
-        <v>2.1147</v>
+        <v>2.1246</v>
       </c>
       <c r="M53" t="n">
-        <v>20.8376</v>
-      </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>20.7909</v>
+      </c>
+      <c r="N53" t="n">
+        <v>2.13554</v>
       </c>
       <c r="O53" t="n">
-        <v>20.7519</v>
+        <v>20.7398</v>
       </c>
     </row>
     <row r="54">
@@ -8244,36 +8058,34 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2.12193</v>
+        <v>2.1345</v>
       </c>
       <c r="G54" t="n">
-        <v>20.8034</v>
+        <v>20.7446</v>
       </c>
       <c r="H54" t="n">
-        <v>2.12193</v>
+        <v>2.1345</v>
       </c>
       <c r="I54" t="n">
-        <v>20.8034</v>
+        <v>20.7446</v>
       </c>
       <c r="J54" t="n">
-        <v>2.12193</v>
+        <v>2.1345</v>
       </c>
       <c r="K54" t="n">
-        <v>20.8034</v>
+        <v>20.7446</v>
       </c>
       <c r="L54" t="n">
-        <v>2.1147</v>
+        <v>2.1246</v>
       </c>
       <c r="M54" t="n">
-        <v>20.8376</v>
-      </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>20.7909</v>
+      </c>
+      <c r="N54" t="n">
+        <v>2.13554</v>
       </c>
       <c r="O54" t="n">
-        <v>20.7519</v>
+        <v>20.7398</v>
       </c>
     </row>
     <row r="55">
@@ -8303,36 +8115,34 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2.12193</v>
+        <v>2.1345</v>
       </c>
       <c r="G55" t="n">
-        <v>20.8034</v>
+        <v>20.7446</v>
       </c>
       <c r="H55" t="n">
-        <v>2.12193</v>
+        <v>2.1345</v>
       </c>
       <c r="I55" t="n">
-        <v>20.8034</v>
+        <v>20.7446</v>
       </c>
       <c r="J55" t="n">
-        <v>2.12193</v>
+        <v>2.1345</v>
       </c>
       <c r="K55" t="n">
-        <v>20.8034</v>
+        <v>20.7446</v>
       </c>
       <c r="L55" t="n">
-        <v>2.1147</v>
+        <v>2.1246</v>
       </c>
       <c r="M55" t="n">
-        <v>20.8376</v>
-      </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>20.7909</v>
+      </c>
+      <c r="N55" t="n">
+        <v>2.13554</v>
       </c>
       <c r="O55" t="n">
-        <v>20.7519</v>
+        <v>20.7398</v>
       </c>
     </row>
     <row r="56">
@@ -8362,36 +8172,34 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2.12193</v>
+        <v>2.1345</v>
       </c>
       <c r="G56" t="n">
-        <v>20.8034</v>
+        <v>20.7446</v>
       </c>
       <c r="H56" t="n">
-        <v>2.12193</v>
+        <v>2.1345</v>
       </c>
       <c r="I56" t="n">
-        <v>20.8034</v>
+        <v>20.7446</v>
       </c>
       <c r="J56" t="n">
-        <v>2.12193</v>
+        <v>2.1345</v>
       </c>
       <c r="K56" t="n">
-        <v>20.8034</v>
+        <v>20.7446</v>
       </c>
       <c r="L56" t="n">
-        <v>2.1147</v>
+        <v>2.1246</v>
       </c>
       <c r="M56" t="n">
-        <v>20.8376</v>
-      </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>20.7909</v>
+      </c>
+      <c r="N56" t="n">
+        <v>2.13554</v>
       </c>
       <c r="O56" t="n">
-        <v>20.7519</v>
+        <v>20.7398</v>
       </c>
     </row>
     <row r="57">
@@ -8421,36 +8229,34 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1.94102</v>
+        <v>1.95242</v>
       </c>
       <c r="G57" t="n">
-        <v>21.7135</v>
+        <v>21.6525</v>
       </c>
       <c r="H57" t="n">
-        <v>1.94102</v>
+        <v>1.95242</v>
       </c>
       <c r="I57" t="n">
-        <v>21.7135</v>
+        <v>21.6525</v>
       </c>
       <c r="J57" t="n">
-        <v>1.94102</v>
+        <v>1.95242</v>
       </c>
       <c r="K57" t="n">
-        <v>21.7135</v>
+        <v>21.6525</v>
       </c>
       <c r="L57" t="n">
-        <v>1.93431</v>
+        <v>1.94348</v>
       </c>
       <c r="M57" t="n">
-        <v>21.7497</v>
-      </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>21.7003</v>
+      </c>
+      <c r="N57" t="n">
+        <v>1.9532</v>
       </c>
       <c r="O57" t="n">
-        <v>21.6599</v>
+        <v>21.6483</v>
       </c>
     </row>
     <row r="58">
@@ -8480,36 +8286,34 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1.94102</v>
+        <v>1.95242</v>
       </c>
       <c r="G58" t="n">
-        <v>21.7135</v>
+        <v>21.6525</v>
       </c>
       <c r="H58" t="n">
-        <v>1.94102</v>
+        <v>1.95242</v>
       </c>
       <c r="I58" t="n">
-        <v>21.7135</v>
+        <v>21.6525</v>
       </c>
       <c r="J58" t="n">
-        <v>1.94102</v>
+        <v>1.95242</v>
       </c>
       <c r="K58" t="n">
-        <v>21.7135</v>
+        <v>21.6525</v>
       </c>
       <c r="L58" t="n">
-        <v>1.93431</v>
+        <v>1.94348</v>
       </c>
       <c r="M58" t="n">
-        <v>21.7497</v>
-      </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>21.7003</v>
+      </c>
+      <c r="N58" t="n">
+        <v>1.9532</v>
       </c>
       <c r="O58" t="n">
-        <v>21.6599</v>
+        <v>21.6483</v>
       </c>
     </row>
     <row r="59">
@@ -8539,36 +8343,34 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1.94102</v>
+        <v>1.95242</v>
       </c>
       <c r="G59" t="n">
-        <v>21.7135</v>
+        <v>21.6525</v>
       </c>
       <c r="H59" t="n">
-        <v>1.94102</v>
+        <v>1.95242</v>
       </c>
       <c r="I59" t="n">
-        <v>21.7135</v>
+        <v>21.6525</v>
       </c>
       <c r="J59" t="n">
-        <v>1.94102</v>
+        <v>1.95242</v>
       </c>
       <c r="K59" t="n">
-        <v>21.7135</v>
+        <v>21.6525</v>
       </c>
       <c r="L59" t="n">
-        <v>1.93431</v>
+        <v>1.94348</v>
       </c>
       <c r="M59" t="n">
-        <v>21.7497</v>
-      </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>21.7003</v>
+      </c>
+      <c r="N59" t="n">
+        <v>1.9532</v>
       </c>
       <c r="O59" t="n">
-        <v>21.6599</v>
+        <v>21.6483</v>
       </c>
     </row>
     <row r="60">
@@ -8598,36 +8400,34 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1.94102</v>
+        <v>1.95242</v>
       </c>
       <c r="G60" t="n">
-        <v>21.7135</v>
+        <v>21.6525</v>
       </c>
       <c r="H60" t="n">
-        <v>1.94102</v>
+        <v>1.95242</v>
       </c>
       <c r="I60" t="n">
-        <v>21.7135</v>
+        <v>21.6525</v>
       </c>
       <c r="J60" t="n">
-        <v>1.94102</v>
+        <v>1.95242</v>
       </c>
       <c r="K60" t="n">
-        <v>21.7135</v>
+        <v>21.6525</v>
       </c>
       <c r="L60" t="n">
-        <v>1.93431</v>
+        <v>1.94348</v>
       </c>
       <c r="M60" t="n">
-        <v>21.7497</v>
-      </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>21.7003</v>
+      </c>
+      <c r="N60" t="n">
+        <v>1.9532</v>
       </c>
       <c r="O60" t="n">
-        <v>21.6599</v>
+        <v>21.6483</v>
       </c>
     </row>
     <row r="61">
@@ -8657,36 +8457,34 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1.94102</v>
+        <v>1.95242</v>
       </c>
       <c r="G61" t="n">
-        <v>21.7135</v>
+        <v>21.6525</v>
       </c>
       <c r="H61" t="n">
-        <v>1.94102</v>
+        <v>1.95242</v>
       </c>
       <c r="I61" t="n">
-        <v>21.7135</v>
+        <v>21.6525</v>
       </c>
       <c r="J61" t="n">
-        <v>1.94102</v>
+        <v>1.95242</v>
       </c>
       <c r="K61" t="n">
-        <v>21.7135</v>
+        <v>21.6525</v>
       </c>
       <c r="L61" t="n">
-        <v>1.93431</v>
+        <v>1.94348</v>
       </c>
       <c r="M61" t="n">
-        <v>21.7497</v>
-      </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>21.7003</v>
+      </c>
+      <c r="N61" t="n">
+        <v>1.9532</v>
       </c>
       <c r="O61" t="n">
-        <v>21.6599</v>
+        <v>21.6483</v>
       </c>
     </row>
     <row r="62">
@@ -8716,36 +8514,34 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1.94102</v>
+        <v>1.95242</v>
       </c>
       <c r="G62" t="n">
-        <v>21.7135</v>
+        <v>21.6525</v>
       </c>
       <c r="H62" t="n">
-        <v>1.94102</v>
+        <v>1.95242</v>
       </c>
       <c r="I62" t="n">
-        <v>21.7135</v>
+        <v>21.6525</v>
       </c>
       <c r="J62" t="n">
-        <v>1.94102</v>
+        <v>1.95242</v>
       </c>
       <c r="K62" t="n">
-        <v>21.7135</v>
+        <v>21.6525</v>
       </c>
       <c r="L62" t="n">
-        <v>1.93431</v>
+        <v>1.94348</v>
       </c>
       <c r="M62" t="n">
-        <v>21.7497</v>
-      </c>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>21.7003</v>
+      </c>
+      <c r="N62" t="n">
+        <v>1.9532</v>
       </c>
       <c r="O62" t="n">
-        <v>21.6599</v>
+        <v>21.6483</v>
       </c>
     </row>
     <row r="63">
@@ -8775,36 +8571,34 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1.94102</v>
+        <v>1.95242</v>
       </c>
       <c r="G63" t="n">
-        <v>21.7135</v>
+        <v>21.6525</v>
       </c>
       <c r="H63" t="n">
-        <v>1.94102</v>
+        <v>1.95242</v>
       </c>
       <c r="I63" t="n">
-        <v>21.7135</v>
+        <v>21.6525</v>
       </c>
       <c r="J63" t="n">
-        <v>1.94102</v>
+        <v>1.95242</v>
       </c>
       <c r="K63" t="n">
-        <v>21.7135</v>
+        <v>21.6525</v>
       </c>
       <c r="L63" t="n">
-        <v>1.93431</v>
+        <v>1.94348</v>
       </c>
       <c r="M63" t="n">
-        <v>21.7497</v>
-      </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>21.7003</v>
+      </c>
+      <c r="N63" t="n">
+        <v>1.9532</v>
       </c>
       <c r="O63" t="n">
-        <v>21.6599</v>
+        <v>21.6483</v>
       </c>
     </row>
     <row r="64">
@@ -8834,36 +8628,34 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1.94102</v>
+        <v>1.95242</v>
       </c>
       <c r="G64" t="n">
-        <v>21.7135</v>
+        <v>21.6525</v>
       </c>
       <c r="H64" t="n">
-        <v>1.94102</v>
+        <v>1.95242</v>
       </c>
       <c r="I64" t="n">
-        <v>21.7135</v>
+        <v>21.6525</v>
       </c>
       <c r="J64" t="n">
-        <v>1.94102</v>
+        <v>1.95242</v>
       </c>
       <c r="K64" t="n">
-        <v>21.7135</v>
+        <v>21.6525</v>
       </c>
       <c r="L64" t="n">
-        <v>1.93431</v>
+        <v>1.94348</v>
       </c>
       <c r="M64" t="n">
-        <v>21.7497</v>
-      </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>21.7003</v>
+      </c>
+      <c r="N64" t="n">
+        <v>1.9532</v>
       </c>
       <c r="O64" t="n">
-        <v>21.6599</v>
+        <v>21.6483</v>
       </c>
     </row>
     <row r="65">
@@ -8893,36 +8685,34 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1.94102</v>
+        <v>1.95242</v>
       </c>
       <c r="G65" t="n">
-        <v>21.7135</v>
+        <v>21.6525</v>
       </c>
       <c r="H65" t="n">
-        <v>1.94102</v>
+        <v>1.95242</v>
       </c>
       <c r="I65" t="n">
-        <v>21.7135</v>
+        <v>21.6525</v>
       </c>
       <c r="J65" t="n">
-        <v>1.94102</v>
+        <v>1.95242</v>
       </c>
       <c r="K65" t="n">
-        <v>21.7135</v>
+        <v>21.6525</v>
       </c>
       <c r="L65" t="n">
-        <v>1.93431</v>
+        <v>1.94348</v>
       </c>
       <c r="M65" t="n">
-        <v>21.7497</v>
-      </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>21.7003</v>
+      </c>
+      <c r="N65" t="n">
+        <v>1.9532</v>
       </c>
       <c r="O65" t="n">
-        <v>21.6599</v>
+        <v>21.6483</v>
       </c>
     </row>
     <row r="66">
@@ -8952,36 +8742,34 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1.94102</v>
+        <v>1.95242</v>
       </c>
       <c r="G66" t="n">
-        <v>21.7135</v>
+        <v>21.6525</v>
       </c>
       <c r="H66" t="n">
-        <v>1.94102</v>
+        <v>1.95242</v>
       </c>
       <c r="I66" t="n">
-        <v>21.7135</v>
+        <v>21.6525</v>
       </c>
       <c r="J66" t="n">
-        <v>1.94102</v>
+        <v>1.95242</v>
       </c>
       <c r="K66" t="n">
-        <v>21.7135</v>
+        <v>21.6525</v>
       </c>
       <c r="L66" t="n">
-        <v>1.93431</v>
+        <v>1.94348</v>
       </c>
       <c r="M66" t="n">
-        <v>21.7497</v>
-      </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>21.7003</v>
+      </c>
+      <c r="N66" t="n">
+        <v>1.9532</v>
       </c>
       <c r="O66" t="n">
-        <v>21.6599</v>
+        <v>21.6483</v>
       </c>
     </row>
     <row r="67">
@@ -9011,36 +8799,34 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1.94102</v>
+        <v>1.95242</v>
       </c>
       <c r="G67" t="n">
-        <v>21.7135</v>
+        <v>21.6525</v>
       </c>
       <c r="H67" t="n">
-        <v>1.94102</v>
+        <v>1.95242</v>
       </c>
       <c r="I67" t="n">
-        <v>21.7135</v>
+        <v>21.6525</v>
       </c>
       <c r="J67" t="n">
-        <v>1.94102</v>
+        <v>1.95242</v>
       </c>
       <c r="K67" t="n">
-        <v>21.7135</v>
+        <v>21.6525</v>
       </c>
       <c r="L67" t="n">
-        <v>1.93431</v>
+        <v>1.94348</v>
       </c>
       <c r="M67" t="n">
-        <v>21.7497</v>
-      </c>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>21.7003</v>
+      </c>
+      <c r="N67" t="n">
+        <v>1.9532</v>
       </c>
       <c r="O67" t="n">
-        <v>21.6599</v>
+        <v>21.6483</v>
       </c>
     </row>
     <row r="68">
@@ -9075,7 +8861,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>31.5218</v>
+        <v>31.4381</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
@@ -9083,7 +8869,7 @@
         </is>
       </c>
       <c r="I68" t="n">
-        <v>31.5218</v>
+        <v>31.4381</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -9091,7 +8877,7 @@
         </is>
       </c>
       <c r="K68" t="n">
-        <v>31.5218</v>
+        <v>31.4381</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -9099,7 +8885,7 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>31.5802</v>
+        <v>31.501</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -9107,7 +8893,7 @@
         </is>
       </c>
       <c r="O68" t="n">
-        <v>31.4474</v>
+        <v>31.4431</v>
       </c>
     </row>
     <row r="69">
@@ -9142,7 +8928,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>31.5218</v>
+        <v>31.4381</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
@@ -9150,7 +8936,7 @@
         </is>
       </c>
       <c r="I69" t="n">
-        <v>31.5218</v>
+        <v>31.4381</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -9158,7 +8944,7 @@
         </is>
       </c>
       <c r="K69" t="n">
-        <v>31.5218</v>
+        <v>31.4381</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -9166,7 +8952,7 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>31.5802</v>
+        <v>31.501</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -9174,7 +8960,7 @@
         </is>
       </c>
       <c r="O69" t="n">
-        <v>31.4474</v>
+        <v>31.4431</v>
       </c>
     </row>
     <row r="70">
@@ -9209,7 +8995,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>31.5218</v>
+        <v>31.4381</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
@@ -9217,7 +9003,7 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>31.5218</v>
+        <v>31.4381</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -9225,7 +9011,7 @@
         </is>
       </c>
       <c r="K70" t="n">
-        <v>31.5218</v>
+        <v>31.4381</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -9233,7 +9019,7 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>31.5802</v>
+        <v>31.501</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -9241,7 +9027,7 @@
         </is>
       </c>
       <c r="O70" t="n">
-        <v>31.4474</v>
+        <v>31.4431</v>
       </c>
     </row>
     <row r="71">
@@ -9276,7 +9062,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>31.5218</v>
+        <v>31.4381</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
@@ -9284,7 +9070,7 @@
         </is>
       </c>
       <c r="I71" t="n">
-        <v>31.5218</v>
+        <v>31.4381</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -9292,7 +9078,7 @@
         </is>
       </c>
       <c r="K71" t="n">
-        <v>31.5218</v>
+        <v>31.4381</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -9300,7 +9086,7 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>31.5802</v>
+        <v>31.501</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -9308,7 +9094,7 @@
         </is>
       </c>
       <c r="O71" t="n">
-        <v>31.4474</v>
+        <v>31.4431</v>
       </c>
     </row>
     <row r="72">
@@ -9343,7 +9129,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>31.5218</v>
+        <v>31.4381</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
@@ -9351,7 +9137,7 @@
         </is>
       </c>
       <c r="I72" t="n">
-        <v>31.5218</v>
+        <v>31.4381</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -9359,7 +9145,7 @@
         </is>
       </c>
       <c r="K72" t="n">
-        <v>31.5218</v>
+        <v>31.4381</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -9367,7 +9153,7 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>31.5802</v>
+        <v>31.501</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -9375,7 +9161,7 @@
         </is>
       </c>
       <c r="O72" t="n">
-        <v>31.4474</v>
+        <v>31.4431</v>
       </c>
     </row>
     <row r="73">
@@ -9410,7 +9196,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>31.5218</v>
+        <v>31.4381</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
@@ -9418,7 +9204,7 @@
         </is>
       </c>
       <c r="I73" t="n">
-        <v>31.5218</v>
+        <v>31.4381</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -9426,7 +9212,7 @@
         </is>
       </c>
       <c r="K73" t="n">
-        <v>31.5218</v>
+        <v>31.4381</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -9434,7 +9220,7 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>31.5802</v>
+        <v>31.501</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -9442,7 +9228,7 @@
         </is>
       </c>
       <c r="O73" t="n">
-        <v>31.4474</v>
+        <v>31.4431</v>
       </c>
     </row>
     <row r="74">
@@ -9477,7 +9263,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>31.5218</v>
+        <v>31.4381</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
@@ -9485,7 +9271,7 @@
         </is>
       </c>
       <c r="I74" t="n">
-        <v>31.5218</v>
+        <v>31.4381</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -9493,7 +9279,7 @@
         </is>
       </c>
       <c r="K74" t="n">
-        <v>31.5218</v>
+        <v>31.4381</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -9501,7 +9287,7 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>31.5802</v>
+        <v>31.501</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -9509,7 +9295,7 @@
         </is>
       </c>
       <c r="O74" t="n">
-        <v>31.4474</v>
+        <v>31.4431</v>
       </c>
     </row>
     <row r="75">
@@ -9544,7 +9330,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>31.5218</v>
+        <v>31.4381</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
@@ -9552,7 +9338,7 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>31.5218</v>
+        <v>31.4381</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -9560,7 +9346,7 @@
         </is>
       </c>
       <c r="K75" t="n">
-        <v>31.5218</v>
+        <v>31.4381</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -9568,7 +9354,7 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>31.5802</v>
+        <v>31.501</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -9576,7 +9362,7 @@
         </is>
       </c>
       <c r="O75" t="n">
-        <v>31.4474</v>
+        <v>31.4431</v>
       </c>
     </row>
     <row r="76">
@@ -9611,7 +9397,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>31.5218</v>
+        <v>31.4381</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
@@ -9619,7 +9405,7 @@
         </is>
       </c>
       <c r="I76" t="n">
-        <v>31.5218</v>
+        <v>31.4381</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -9627,7 +9413,7 @@
         </is>
       </c>
       <c r="K76" t="n">
-        <v>31.5218</v>
+        <v>31.4381</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -9635,7 +9421,7 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>31.5802</v>
+        <v>31.501</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -9643,7 +9429,7 @@
         </is>
       </c>
       <c r="O76" t="n">
-        <v>31.4474</v>
+        <v>31.4431</v>
       </c>
     </row>
     <row r="77">
@@ -9678,7 +9464,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>31.5218</v>
+        <v>31.4381</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
@@ -9686,7 +9472,7 @@
         </is>
       </c>
       <c r="I77" t="n">
-        <v>31.5218</v>
+        <v>31.4381</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -9694,7 +9480,7 @@
         </is>
       </c>
       <c r="K77" t="n">
-        <v>31.5218</v>
+        <v>31.4381</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -9702,7 +9488,7 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>31.5802</v>
+        <v>31.501</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -9710,7 +9496,7 @@
         </is>
       </c>
       <c r="O77" t="n">
-        <v>31.4474</v>
+        <v>31.4431</v>
       </c>
     </row>
     <row r="78">
@@ -9745,7 +9531,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>31.5218</v>
+        <v>31.4381</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
@@ -9753,7 +9539,7 @@
         </is>
       </c>
       <c r="I78" t="n">
-        <v>31.5218</v>
+        <v>31.4381</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -9761,7 +9547,7 @@
         </is>
       </c>
       <c r="K78" t="n">
-        <v>31.5218</v>
+        <v>31.4381</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -9769,7 +9555,7 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>31.5802</v>
+        <v>31.501</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -9777,7 +9563,7 @@
         </is>
       </c>
       <c r="O78" t="n">
-        <v>31.4474</v>
+        <v>31.4431</v>
       </c>
     </row>
     <row r="79">
@@ -9807,34 +9593,34 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>0.554799</v>
+        <v>0.558341</v>
       </c>
       <c r="G79" t="n">
-        <v>38.939</v>
+        <v>38.8417</v>
       </c>
       <c r="H79" t="n">
-        <v>0.554799</v>
+        <v>0.558341</v>
       </c>
       <c r="I79" t="n">
-        <v>38.939</v>
+        <v>38.8417</v>
       </c>
       <c r="J79" t="n">
-        <v>0.554799</v>
+        <v>0.558341</v>
       </c>
       <c r="K79" t="n">
-        <v>38.939</v>
+        <v>38.8417</v>
       </c>
       <c r="L79" t="n">
-        <v>0.552018</v>
+        <v>0.555778</v>
       </c>
       <c r="M79" t="n">
-        <v>39.016</v>
+        <v>38.912</v>
       </c>
       <c r="N79" t="n">
-        <v>0.55797</v>
+        <v>0.557717</v>
       </c>
       <c r="O79" t="n">
-        <v>38.8519</v>
+        <v>38.8588</v>
       </c>
     </row>
     <row r="80">
@@ -9864,34 +9650,34 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.554799</v>
+        <v>0.558341</v>
       </c>
       <c r="G80" t="n">
-        <v>38.939</v>
+        <v>38.8417</v>
       </c>
       <c r="H80" t="n">
-        <v>0.554799</v>
+        <v>0.558341</v>
       </c>
       <c r="I80" t="n">
-        <v>38.939</v>
+        <v>38.8417</v>
       </c>
       <c r="J80" t="n">
-        <v>0.554799</v>
+        <v>0.558341</v>
       </c>
       <c r="K80" t="n">
-        <v>38.939</v>
+        <v>38.8417</v>
       </c>
       <c r="L80" t="n">
-        <v>0.552018</v>
+        <v>0.555778</v>
       </c>
       <c r="M80" t="n">
-        <v>39.016</v>
+        <v>38.912</v>
       </c>
       <c r="N80" t="n">
-        <v>0.55797</v>
+        <v>0.557717</v>
       </c>
       <c r="O80" t="n">
-        <v>38.8519</v>
+        <v>38.8588</v>
       </c>
     </row>
     <row r="81">
@@ -9921,34 +9707,34 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.554799</v>
+        <v>0.558341</v>
       </c>
       <c r="G81" t="n">
-        <v>38.939</v>
+        <v>38.8417</v>
       </c>
       <c r="H81" t="n">
-        <v>0.554799</v>
+        <v>0.558341</v>
       </c>
       <c r="I81" t="n">
-        <v>38.939</v>
+        <v>38.8417</v>
       </c>
       <c r="J81" t="n">
-        <v>0.554799</v>
+        <v>0.558341</v>
       </c>
       <c r="K81" t="n">
-        <v>38.939</v>
+        <v>38.8417</v>
       </c>
       <c r="L81" t="n">
-        <v>0.552018</v>
+        <v>0.555778</v>
       </c>
       <c r="M81" t="n">
-        <v>39.016</v>
+        <v>38.912</v>
       </c>
       <c r="N81" t="n">
-        <v>0.55797</v>
+        <v>0.557717</v>
       </c>
       <c r="O81" t="n">
-        <v>38.8519</v>
+        <v>38.8588</v>
       </c>
     </row>
     <row r="82">
@@ -9978,34 +9764,34 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>0.554799</v>
+        <v>0.558341</v>
       </c>
       <c r="G82" t="n">
-        <v>38.939</v>
+        <v>38.8417</v>
       </c>
       <c r="H82" t="n">
-        <v>0.554799</v>
+        <v>0.558341</v>
       </c>
       <c r="I82" t="n">
-        <v>38.939</v>
+        <v>38.8417</v>
       </c>
       <c r="J82" t="n">
-        <v>0.554799</v>
+        <v>0.558341</v>
       </c>
       <c r="K82" t="n">
-        <v>38.939</v>
+        <v>38.8417</v>
       </c>
       <c r="L82" t="n">
-        <v>0.552018</v>
+        <v>0.555778</v>
       </c>
       <c r="M82" t="n">
-        <v>39.016</v>
+        <v>38.912</v>
       </c>
       <c r="N82" t="n">
-        <v>0.55797</v>
+        <v>0.557717</v>
       </c>
       <c r="O82" t="n">
-        <v>38.8519</v>
+        <v>38.8588</v>
       </c>
     </row>
     <row r="83">
@@ -10035,34 +9821,34 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.554799</v>
+        <v>0.558341</v>
       </c>
       <c r="G83" t="n">
-        <v>38.939</v>
+        <v>38.8417</v>
       </c>
       <c r="H83" t="n">
-        <v>0.554799</v>
+        <v>0.558341</v>
       </c>
       <c r="I83" t="n">
-        <v>38.939</v>
+        <v>38.8417</v>
       </c>
       <c r="J83" t="n">
-        <v>0.554799</v>
+        <v>0.558341</v>
       </c>
       <c r="K83" t="n">
-        <v>38.939</v>
+        <v>38.8417</v>
       </c>
       <c r="L83" t="n">
-        <v>0.552018</v>
+        <v>0.555778</v>
       </c>
       <c r="M83" t="n">
-        <v>39.016</v>
+        <v>38.912</v>
       </c>
       <c r="N83" t="n">
-        <v>0.55797</v>
+        <v>0.557717</v>
       </c>
       <c r="O83" t="n">
-        <v>38.8519</v>
+        <v>38.8588</v>
       </c>
     </row>
     <row r="84">
@@ -10092,34 +9878,34 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.554799</v>
+        <v>0.558341</v>
       </c>
       <c r="G84" t="n">
-        <v>38.939</v>
+        <v>38.8417</v>
       </c>
       <c r="H84" t="n">
-        <v>0.554799</v>
+        <v>0.558341</v>
       </c>
       <c r="I84" t="n">
-        <v>38.939</v>
+        <v>38.8417</v>
       </c>
       <c r="J84" t="n">
-        <v>0.554799</v>
+        <v>0.558341</v>
       </c>
       <c r="K84" t="n">
-        <v>38.939</v>
+        <v>38.8417</v>
       </c>
       <c r="L84" t="n">
-        <v>0.552018</v>
+        <v>0.555778</v>
       </c>
       <c r="M84" t="n">
-        <v>39.016</v>
+        <v>38.912</v>
       </c>
       <c r="N84" t="n">
-        <v>0.55797</v>
+        <v>0.557717</v>
       </c>
       <c r="O84" t="n">
-        <v>38.8519</v>
+        <v>38.8588</v>
       </c>
     </row>
     <row r="85">
@@ -10149,34 +9935,34 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>0.554799</v>
+        <v>0.558341</v>
       </c>
       <c r="G85" t="n">
-        <v>38.939</v>
+        <v>38.8417</v>
       </c>
       <c r="H85" t="n">
-        <v>0.554799</v>
+        <v>0.558341</v>
       </c>
       <c r="I85" t="n">
-        <v>38.939</v>
+        <v>38.8417</v>
       </c>
       <c r="J85" t="n">
-        <v>0.554799</v>
+        <v>0.558341</v>
       </c>
       <c r="K85" t="n">
-        <v>38.939</v>
+        <v>38.8417</v>
       </c>
       <c r="L85" t="n">
-        <v>0.552018</v>
+        <v>0.555778</v>
       </c>
       <c r="M85" t="n">
-        <v>39.016</v>
+        <v>38.912</v>
       </c>
       <c r="N85" t="n">
-        <v>0.55797</v>
+        <v>0.557717</v>
       </c>
       <c r="O85" t="n">
-        <v>38.8519</v>
+        <v>38.8588</v>
       </c>
     </row>
     <row r="86">
@@ -10206,34 +9992,34 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>0.554799</v>
+        <v>0.558341</v>
       </c>
       <c r="G86" t="n">
-        <v>38.939</v>
+        <v>38.8417</v>
       </c>
       <c r="H86" t="n">
-        <v>0.554799</v>
+        <v>0.558341</v>
       </c>
       <c r="I86" t="n">
-        <v>38.939</v>
+        <v>38.8417</v>
       </c>
       <c r="J86" t="n">
-        <v>0.554799</v>
+        <v>0.558341</v>
       </c>
       <c r="K86" t="n">
-        <v>38.939</v>
+        <v>38.8417</v>
       </c>
       <c r="L86" t="n">
-        <v>0.552018</v>
+        <v>0.555778</v>
       </c>
       <c r="M86" t="n">
-        <v>39.016</v>
+        <v>38.912</v>
       </c>
       <c r="N86" t="n">
-        <v>0.55797</v>
+        <v>0.557717</v>
       </c>
       <c r="O86" t="n">
-        <v>38.8519</v>
+        <v>38.8588</v>
       </c>
     </row>
     <row r="87">
@@ -10263,34 +10049,34 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.554799</v>
+        <v>0.558341</v>
       </c>
       <c r="G87" t="n">
-        <v>38.939</v>
+        <v>38.8417</v>
       </c>
       <c r="H87" t="n">
-        <v>0.554799</v>
+        <v>0.558341</v>
       </c>
       <c r="I87" t="n">
-        <v>38.939</v>
+        <v>38.8417</v>
       </c>
       <c r="J87" t="n">
-        <v>0.554799</v>
+        <v>0.558341</v>
       </c>
       <c r="K87" t="n">
-        <v>38.939</v>
+        <v>38.8417</v>
       </c>
       <c r="L87" t="n">
-        <v>0.552018</v>
+        <v>0.555778</v>
       </c>
       <c r="M87" t="n">
-        <v>39.016</v>
+        <v>38.912</v>
       </c>
       <c r="N87" t="n">
-        <v>0.55797</v>
+        <v>0.557717</v>
       </c>
       <c r="O87" t="n">
-        <v>38.8519</v>
+        <v>38.8588</v>
       </c>
     </row>
     <row r="88">
@@ -10320,34 +10106,34 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>0.554799</v>
+        <v>0.558341</v>
       </c>
       <c r="G88" t="n">
-        <v>38.939</v>
+        <v>38.8417</v>
       </c>
       <c r="H88" t="n">
-        <v>0.554799</v>
+        <v>0.558341</v>
       </c>
       <c r="I88" t="n">
-        <v>38.939</v>
+        <v>38.8417</v>
       </c>
       <c r="J88" t="n">
-        <v>0.554799</v>
+        <v>0.558341</v>
       </c>
       <c r="K88" t="n">
-        <v>38.939</v>
+        <v>38.8417</v>
       </c>
       <c r="L88" t="n">
-        <v>0.552018</v>
+        <v>0.555778</v>
       </c>
       <c r="M88" t="n">
-        <v>39.016</v>
+        <v>38.912</v>
       </c>
       <c r="N88" t="n">
-        <v>0.55797</v>
+        <v>0.557717</v>
       </c>
       <c r="O88" t="n">
-        <v>38.8519</v>
+        <v>38.8588</v>
       </c>
     </row>
     <row r="89">
@@ -10377,34 +10163,34 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>0.554799</v>
+        <v>0.558341</v>
       </c>
       <c r="G89" t="n">
-        <v>38.939</v>
+        <v>38.8417</v>
       </c>
       <c r="H89" t="n">
-        <v>0.554799</v>
+        <v>0.558341</v>
       </c>
       <c r="I89" t="n">
-        <v>38.939</v>
+        <v>38.8417</v>
       </c>
       <c r="J89" t="n">
-        <v>0.554799</v>
+        <v>0.558341</v>
       </c>
       <c r="K89" t="n">
-        <v>38.939</v>
+        <v>38.8417</v>
       </c>
       <c r="L89" t="n">
-        <v>0.552018</v>
+        <v>0.555778</v>
       </c>
       <c r="M89" t="n">
-        <v>39.016</v>
+        <v>38.912</v>
       </c>
       <c r="N89" t="n">
-        <v>0.55797</v>
+        <v>0.557717</v>
       </c>
       <c r="O89" t="n">
-        <v>38.8519</v>
+        <v>38.8588</v>
       </c>
     </row>
     <row r="90">
@@ -10434,34 +10220,34 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>0.4529</v>
+        <v>0.455628</v>
       </c>
       <c r="G90" t="n">
-        <v>42.2152</v>
+        <v>42.1132</v>
       </c>
       <c r="H90" t="n">
-        <v>0.4529</v>
+        <v>0.455628</v>
       </c>
       <c r="I90" t="n">
-        <v>42.2152</v>
+        <v>42.1132</v>
       </c>
       <c r="J90" t="n">
-        <v>0.4529</v>
+        <v>0.455628</v>
       </c>
       <c r="K90" t="n">
-        <v>42.2152</v>
+        <v>42.1132</v>
       </c>
       <c r="L90" t="n">
-        <v>0.450634</v>
+        <v>0.453694</v>
       </c>
       <c r="M90" t="n">
-        <v>42.3007</v>
+        <v>42.1854</v>
       </c>
       <c r="N90" t="n">
-        <v>0.455352</v>
+        <v>0.454992</v>
       </c>
       <c r="O90" t="n">
-        <v>42.1235</v>
+        <v>42.1369</v>
       </c>
     </row>
     <row r="91">
@@ -10491,34 +10277,34 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>0.4529</v>
+        <v>0.455628</v>
       </c>
       <c r="G91" t="n">
-        <v>42.2152</v>
+        <v>42.1132</v>
       </c>
       <c r="H91" t="n">
-        <v>0.4529</v>
+        <v>0.455628</v>
       </c>
       <c r="I91" t="n">
-        <v>42.2152</v>
+        <v>42.1132</v>
       </c>
       <c r="J91" t="n">
-        <v>0.4529</v>
+        <v>0.455628</v>
       </c>
       <c r="K91" t="n">
-        <v>42.2152</v>
+        <v>42.1132</v>
       </c>
       <c r="L91" t="n">
-        <v>0.450634</v>
+        <v>0.453694</v>
       </c>
       <c r="M91" t="n">
-        <v>42.3007</v>
+        <v>42.1854</v>
       </c>
       <c r="N91" t="n">
-        <v>0.455352</v>
+        <v>0.454992</v>
       </c>
       <c r="O91" t="n">
-        <v>42.1235</v>
+        <v>42.1369</v>
       </c>
     </row>
     <row r="92">
@@ -10548,34 +10334,34 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>0.4529</v>
+        <v>0.455628</v>
       </c>
       <c r="G92" t="n">
-        <v>42.2152</v>
+        <v>42.1132</v>
       </c>
       <c r="H92" t="n">
-        <v>0.4529</v>
+        <v>0.455628</v>
       </c>
       <c r="I92" t="n">
-        <v>42.2152</v>
+        <v>42.1132</v>
       </c>
       <c r="J92" t="n">
-        <v>0.4529</v>
+        <v>0.455628</v>
       </c>
       <c r="K92" t="n">
-        <v>42.2152</v>
+        <v>42.1132</v>
       </c>
       <c r="L92" t="n">
-        <v>0.450634</v>
+        <v>0.453694</v>
       </c>
       <c r="M92" t="n">
-        <v>42.3007</v>
+        <v>42.1854</v>
       </c>
       <c r="N92" t="n">
-        <v>0.455352</v>
+        <v>0.454992</v>
       </c>
       <c r="O92" t="n">
-        <v>42.1235</v>
+        <v>42.1369</v>
       </c>
     </row>
     <row r="93">
@@ -10605,34 +10391,34 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>0.4529</v>
+        <v>0.455628</v>
       </c>
       <c r="G93" t="n">
-        <v>42.2152</v>
+        <v>42.1132</v>
       </c>
       <c r="H93" t="n">
-        <v>0.4529</v>
+        <v>0.455628</v>
       </c>
       <c r="I93" t="n">
-        <v>42.2152</v>
+        <v>42.1132</v>
       </c>
       <c r="J93" t="n">
-        <v>0.4529</v>
+        <v>0.455628</v>
       </c>
       <c r="K93" t="n">
-        <v>42.2152</v>
+        <v>42.1132</v>
       </c>
       <c r="L93" t="n">
-        <v>0.450634</v>
+        <v>0.453694</v>
       </c>
       <c r="M93" t="n">
-        <v>42.3007</v>
+        <v>42.1854</v>
       </c>
       <c r="N93" t="n">
-        <v>0.455352</v>
+        <v>0.454992</v>
       </c>
       <c r="O93" t="n">
-        <v>42.1235</v>
+        <v>42.1369</v>
       </c>
     </row>
     <row r="94">
@@ -10662,34 +10448,34 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>0.4529</v>
+        <v>0.455628</v>
       </c>
       <c r="G94" t="n">
-        <v>42.2152</v>
+        <v>42.1132</v>
       </c>
       <c r="H94" t="n">
-        <v>0.4529</v>
+        <v>0.455628</v>
       </c>
       <c r="I94" t="n">
-        <v>42.2152</v>
+        <v>42.1132</v>
       </c>
       <c r="J94" t="n">
-        <v>0.4529</v>
+        <v>0.455628</v>
       </c>
       <c r="K94" t="n">
-        <v>42.2152</v>
+        <v>42.1132</v>
       </c>
       <c r="L94" t="n">
-        <v>0.450634</v>
+        <v>0.453694</v>
       </c>
       <c r="M94" t="n">
-        <v>42.3007</v>
+        <v>42.1854</v>
       </c>
       <c r="N94" t="n">
-        <v>0.455352</v>
+        <v>0.454992</v>
       </c>
       <c r="O94" t="n">
-        <v>42.1235</v>
+        <v>42.1369</v>
       </c>
     </row>
     <row r="95">
@@ -10719,34 +10505,34 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>0.4529</v>
+        <v>0.455628</v>
       </c>
       <c r="G95" t="n">
-        <v>42.2152</v>
+        <v>42.1132</v>
       </c>
       <c r="H95" t="n">
-        <v>0.4529</v>
+        <v>0.455628</v>
       </c>
       <c r="I95" t="n">
-        <v>42.2152</v>
+        <v>42.1132</v>
       </c>
       <c r="J95" t="n">
-        <v>0.4529</v>
+        <v>0.455628</v>
       </c>
       <c r="K95" t="n">
-        <v>42.2152</v>
+        <v>42.1132</v>
       </c>
       <c r="L95" t="n">
-        <v>0.450634</v>
+        <v>0.453694</v>
       </c>
       <c r="M95" t="n">
-        <v>42.3007</v>
+        <v>42.1854</v>
       </c>
       <c r="N95" t="n">
-        <v>0.455352</v>
+        <v>0.454992</v>
       </c>
       <c r="O95" t="n">
-        <v>42.1235</v>
+        <v>42.1369</v>
       </c>
     </row>
     <row r="96">
@@ -10776,34 +10562,34 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>0.4529</v>
+        <v>0.455628</v>
       </c>
       <c r="G96" t="n">
-        <v>42.2152</v>
+        <v>42.1132</v>
       </c>
       <c r="H96" t="n">
-        <v>0.4529</v>
+        <v>0.455628</v>
       </c>
       <c r="I96" t="n">
-        <v>42.2152</v>
+        <v>42.1132</v>
       </c>
       <c r="J96" t="n">
-        <v>0.4529</v>
+        <v>0.455628</v>
       </c>
       <c r="K96" t="n">
-        <v>42.2152</v>
+        <v>42.1132</v>
       </c>
       <c r="L96" t="n">
-        <v>0.450634</v>
+        <v>0.453694</v>
       </c>
       <c r="M96" t="n">
-        <v>42.3007</v>
+        <v>42.1854</v>
       </c>
       <c r="N96" t="n">
-        <v>0.455352</v>
+        <v>0.454992</v>
       </c>
       <c r="O96" t="n">
-        <v>42.1235</v>
+        <v>42.1369</v>
       </c>
     </row>
     <row r="97">
@@ -10833,34 +10619,34 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>0.4529</v>
+        <v>0.455628</v>
       </c>
       <c r="G97" t="n">
-        <v>42.2152</v>
+        <v>42.1132</v>
       </c>
       <c r="H97" t="n">
-        <v>0.4529</v>
+        <v>0.455628</v>
       </c>
       <c r="I97" t="n">
-        <v>42.2152</v>
+        <v>42.1132</v>
       </c>
       <c r="J97" t="n">
-        <v>0.4529</v>
+        <v>0.455628</v>
       </c>
       <c r="K97" t="n">
-        <v>42.2152</v>
+        <v>42.1132</v>
       </c>
       <c r="L97" t="n">
-        <v>0.450634</v>
+        <v>0.453694</v>
       </c>
       <c r="M97" t="n">
-        <v>42.3007</v>
+        <v>42.1854</v>
       </c>
       <c r="N97" t="n">
-        <v>0.455352</v>
+        <v>0.454992</v>
       </c>
       <c r="O97" t="n">
-        <v>42.1235</v>
+        <v>42.1369</v>
       </c>
     </row>
     <row r="98">
@@ -10890,34 +10676,34 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>0.4529</v>
+        <v>0.455628</v>
       </c>
       <c r="G98" t="n">
-        <v>42.2152</v>
+        <v>42.1132</v>
       </c>
       <c r="H98" t="n">
-        <v>0.4529</v>
+        <v>0.455628</v>
       </c>
       <c r="I98" t="n">
-        <v>42.2152</v>
+        <v>42.1132</v>
       </c>
       <c r="J98" t="n">
-        <v>0.4529</v>
+        <v>0.455628</v>
       </c>
       <c r="K98" t="n">
-        <v>42.2152</v>
+        <v>42.1132</v>
       </c>
       <c r="L98" t="n">
-        <v>0.450634</v>
+        <v>0.453694</v>
       </c>
       <c r="M98" t="n">
-        <v>42.3007</v>
+        <v>42.1854</v>
       </c>
       <c r="N98" t="n">
-        <v>0.455352</v>
+        <v>0.454992</v>
       </c>
       <c r="O98" t="n">
-        <v>42.1235</v>
+        <v>42.1369</v>
       </c>
     </row>
     <row r="99">
@@ -10947,34 +10733,34 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>0.4529</v>
+        <v>0.455628</v>
       </c>
       <c r="G99" t="n">
-        <v>42.2152</v>
+        <v>42.1132</v>
       </c>
       <c r="H99" t="n">
-        <v>0.4529</v>
+        <v>0.455628</v>
       </c>
       <c r="I99" t="n">
-        <v>42.2152</v>
+        <v>42.1132</v>
       </c>
       <c r="J99" t="n">
-        <v>0.4529</v>
+        <v>0.455628</v>
       </c>
       <c r="K99" t="n">
-        <v>42.2152</v>
+        <v>42.1132</v>
       </c>
       <c r="L99" t="n">
-        <v>0.450634</v>
+        <v>0.453694</v>
       </c>
       <c r="M99" t="n">
-        <v>42.3007</v>
+        <v>42.1854</v>
       </c>
       <c r="N99" t="n">
-        <v>0.455352</v>
+        <v>0.454992</v>
       </c>
       <c r="O99" t="n">
-        <v>42.1235</v>
+        <v>42.1369</v>
       </c>
     </row>
     <row r="100">
@@ -11004,34 +10790,34 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>0.4529</v>
+        <v>0.455628</v>
       </c>
       <c r="G100" t="n">
-        <v>42.2152</v>
+        <v>42.1132</v>
       </c>
       <c r="H100" t="n">
-        <v>0.4529</v>
+        <v>0.455628</v>
       </c>
       <c r="I100" t="n">
-        <v>42.2152</v>
+        <v>42.1132</v>
       </c>
       <c r="J100" t="n">
-        <v>0.4529</v>
+        <v>0.455628</v>
       </c>
       <c r="K100" t="n">
-        <v>42.2152</v>
+        <v>42.1132</v>
       </c>
       <c r="L100" t="n">
-        <v>0.450634</v>
+        <v>0.453694</v>
       </c>
       <c r="M100" t="n">
-        <v>42.3007</v>
+        <v>42.1854</v>
       </c>
       <c r="N100" t="n">
-        <v>0.455352</v>
+        <v>0.454992</v>
       </c>
       <c r="O100" t="n">
-        <v>42.1235</v>
+        <v>42.1369</v>
       </c>
     </row>
     <row r="101">
@@ -11061,34 +10847,34 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>0.220415</v>
+        <v>0.220981</v>
       </c>
       <c r="G101" t="n">
-        <v>50.625</v>
+        <v>50.5143</v>
       </c>
       <c r="H101" t="n">
-        <v>0.220415</v>
+        <v>0.220981</v>
       </c>
       <c r="I101" t="n">
-        <v>50.625</v>
+        <v>50.5143</v>
       </c>
       <c r="J101" t="n">
-        <v>0.220415</v>
+        <v>0.220981</v>
       </c>
       <c r="K101" t="n">
-        <v>50.625</v>
+        <v>50.5143</v>
       </c>
       <c r="L101" t="n">
-        <v>0.219867</v>
+        <v>0.220605</v>
       </c>
       <c r="M101" t="n">
-        <v>50.7325</v>
+        <v>50.5878</v>
       </c>
       <c r="N101" t="n">
-        <v>0.220928</v>
+        <v>0.220752</v>
       </c>
       <c r="O101" t="n">
-        <v>50.5246</v>
+        <v>50.559</v>
       </c>
     </row>
     <row r="102">
@@ -11118,34 +10904,34 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>0.2204149</v>
+        <v>0.2209809</v>
       </c>
       <c r="G102" t="n">
-        <v>50.62496</v>
+        <v>50.51435</v>
       </c>
       <c r="H102" t="n">
-        <v>0.2204149</v>
+        <v>0.2209809</v>
       </c>
       <c r="I102" t="n">
-        <v>50.62496</v>
+        <v>50.51435</v>
       </c>
       <c r="J102" t="n">
-        <v>0.2204149</v>
+        <v>0.2209809</v>
       </c>
       <c r="K102" t="n">
-        <v>50.62496</v>
+        <v>50.51435</v>
       </c>
       <c r="L102" t="n">
-        <v>0.2198669</v>
+        <v>0.2206049</v>
       </c>
       <c r="M102" t="n">
-        <v>50.73249</v>
+        <v>50.58776</v>
       </c>
       <c r="N102" t="n">
-        <v>0.2209285</v>
+        <v>0.2207523</v>
       </c>
       <c r="O102" t="n">
-        <v>50.52457</v>
+        <v>50.55896</v>
       </c>
     </row>
     <row r="103">
@@ -11175,34 +10961,34 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>0.2204149</v>
+        <v>0.2209809</v>
       </c>
       <c r="G103" t="n">
-        <v>50.62496</v>
+        <v>50.51435</v>
       </c>
       <c r="H103" t="n">
-        <v>0.2204149</v>
+        <v>0.2209809</v>
       </c>
       <c r="I103" t="n">
-        <v>50.62496</v>
+        <v>50.51435</v>
       </c>
       <c r="J103" t="n">
-        <v>0.2204149</v>
+        <v>0.2209809</v>
       </c>
       <c r="K103" t="n">
-        <v>50.62496</v>
+        <v>50.51435</v>
       </c>
       <c r="L103" t="n">
-        <v>0.2198669</v>
+        <v>0.2206049</v>
       </c>
       <c r="M103" t="n">
-        <v>50.73249</v>
+        <v>50.58776</v>
       </c>
       <c r="N103" t="n">
-        <v>0.2209285</v>
+        <v>0.2207523</v>
       </c>
       <c r="O103" t="n">
-        <v>50.52457</v>
+        <v>50.55896</v>
       </c>
     </row>
     <row r="104">
@@ -11232,34 +11018,34 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>0.2204149</v>
+        <v>0.2209809</v>
       </c>
       <c r="G104" t="n">
-        <v>50.62496</v>
+        <v>50.51435</v>
       </c>
       <c r="H104" t="n">
-        <v>0.2204149</v>
+        <v>0.2209809</v>
       </c>
       <c r="I104" t="n">
-        <v>50.62496</v>
+        <v>50.51435</v>
       </c>
       <c r="J104" t="n">
-        <v>0.2204149</v>
+        <v>0.2209809</v>
       </c>
       <c r="K104" t="n">
-        <v>50.62496</v>
+        <v>50.51435</v>
       </c>
       <c r="L104" t="n">
-        <v>0.2198669</v>
+        <v>0.2206049</v>
       </c>
       <c r="M104" t="n">
-        <v>50.73249</v>
+        <v>50.58776</v>
       </c>
       <c r="N104" t="n">
-        <v>0.2209285</v>
+        <v>0.2207523</v>
       </c>
       <c r="O104" t="n">
-        <v>50.52457</v>
+        <v>50.55896</v>
       </c>
     </row>
     <row r="105">
@@ -11289,34 +11075,34 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>0.2204149</v>
+        <v>0.2209809</v>
       </c>
       <c r="G105" t="n">
-        <v>50.62496</v>
+        <v>50.51435</v>
       </c>
       <c r="H105" t="n">
-        <v>0.2204149</v>
+        <v>0.2209809</v>
       </c>
       <c r="I105" t="n">
-        <v>50.62496</v>
+        <v>50.51435</v>
       </c>
       <c r="J105" t="n">
-        <v>0.2204149</v>
+        <v>0.2209809</v>
       </c>
       <c r="K105" t="n">
-        <v>50.62496</v>
+        <v>50.51435</v>
       </c>
       <c r="L105" t="n">
-        <v>0.2198669</v>
+        <v>0.2206049</v>
       </c>
       <c r="M105" t="n">
-        <v>50.73249</v>
+        <v>50.58776</v>
       </c>
       <c r="N105" t="n">
-        <v>0.2209285</v>
+        <v>0.2207523</v>
       </c>
       <c r="O105" t="n">
-        <v>50.52457</v>
+        <v>50.55896</v>
       </c>
     </row>
     <row r="106">
@@ -11346,34 +11132,34 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>0.2204149</v>
+        <v>0.2209809</v>
       </c>
       <c r="G106" t="n">
-        <v>50.62496</v>
+        <v>50.51435</v>
       </c>
       <c r="H106" t="n">
-        <v>0.2204149</v>
+        <v>0.2209809</v>
       </c>
       <c r="I106" t="n">
-        <v>50.62496</v>
+        <v>50.51435</v>
       </c>
       <c r="J106" t="n">
-        <v>0.2204149</v>
+        <v>0.2209809</v>
       </c>
       <c r="K106" t="n">
-        <v>50.62496</v>
+        <v>50.51435</v>
       </c>
       <c r="L106" t="n">
-        <v>0.2198669</v>
+        <v>0.2206049</v>
       </c>
       <c r="M106" t="n">
-        <v>50.73249</v>
+        <v>50.58776</v>
       </c>
       <c r="N106" t="n">
-        <v>0.2209285</v>
+        <v>0.2207523</v>
       </c>
       <c r="O106" t="n">
-        <v>50.52457</v>
+        <v>50.55896</v>
       </c>
     </row>
     <row r="107">
@@ -11403,34 +11189,34 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>0.2204149</v>
+        <v>0.2209809</v>
       </c>
       <c r="G107" t="n">
-        <v>50.62496</v>
+        <v>50.51435</v>
       </c>
       <c r="H107" t="n">
-        <v>0.2204149</v>
+        <v>0.2209809</v>
       </c>
       <c r="I107" t="n">
-        <v>50.62496</v>
+        <v>50.51435</v>
       </c>
       <c r="J107" t="n">
-        <v>0.2204149</v>
+        <v>0.2209809</v>
       </c>
       <c r="K107" t="n">
-        <v>50.62496</v>
+        <v>50.51435</v>
       </c>
       <c r="L107" t="n">
-        <v>0.2198669</v>
+        <v>0.2206049</v>
       </c>
       <c r="M107" t="n">
-        <v>50.73249</v>
+        <v>50.58776</v>
       </c>
       <c r="N107" t="n">
-        <v>0.2209285</v>
+        <v>0.2207523</v>
       </c>
       <c r="O107" t="n">
-        <v>50.52457</v>
+        <v>50.55896</v>
       </c>
     </row>
     <row r="108">
@@ -11460,34 +11246,34 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>0.2204149</v>
+        <v>0.2209809</v>
       </c>
       <c r="G108" t="n">
-        <v>50.62496</v>
+        <v>50.51435</v>
       </c>
       <c r="H108" t="n">
-        <v>0.2204149</v>
+        <v>0.2209809</v>
       </c>
       <c r="I108" t="n">
-        <v>50.62496</v>
+        <v>50.51435</v>
       </c>
       <c r="J108" t="n">
-        <v>0.2204149</v>
+        <v>0.2209809</v>
       </c>
       <c r="K108" t="n">
-        <v>50.62496</v>
+        <v>50.51435</v>
       </c>
       <c r="L108" t="n">
-        <v>0.2198669</v>
+        <v>0.2206049</v>
       </c>
       <c r="M108" t="n">
-        <v>50.73249</v>
+        <v>50.58776</v>
       </c>
       <c r="N108" t="n">
-        <v>0.2209285</v>
+        <v>0.2207523</v>
       </c>
       <c r="O108" t="n">
-        <v>50.52457</v>
+        <v>50.55896</v>
       </c>
     </row>
     <row r="109">
@@ -11517,34 +11303,34 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>0.2204149</v>
+        <v>0.2209809</v>
       </c>
       <c r="G109" t="n">
-        <v>50.62496</v>
+        <v>50.51435</v>
       </c>
       <c r="H109" t="n">
-        <v>0.2204149</v>
+        <v>0.2209809</v>
       </c>
       <c r="I109" t="n">
-        <v>50.62496</v>
+        <v>50.51435</v>
       </c>
       <c r="J109" t="n">
-        <v>0.2204149</v>
+        <v>0.2209809</v>
       </c>
       <c r="K109" t="n">
-        <v>50.62496</v>
+        <v>50.51435</v>
       </c>
       <c r="L109" t="n">
-        <v>0.2198669</v>
+        <v>0.2206049</v>
       </c>
       <c r="M109" t="n">
-        <v>50.73249</v>
+        <v>50.58776</v>
       </c>
       <c r="N109" t="n">
-        <v>0.2209285</v>
+        <v>0.2207523</v>
       </c>
       <c r="O109" t="n">
-        <v>50.52457</v>
+        <v>50.55896</v>
       </c>
     </row>
     <row r="110">
@@ -11574,34 +11360,34 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>0.2204149</v>
+        <v>0.2209809</v>
       </c>
       <c r="G110" t="n">
-        <v>50.62496</v>
+        <v>50.51435</v>
       </c>
       <c r="H110" t="n">
-        <v>0.2204149</v>
+        <v>0.2209809</v>
       </c>
       <c r="I110" t="n">
-        <v>50.62496</v>
+        <v>50.51435</v>
       </c>
       <c r="J110" t="n">
-        <v>0.2204149</v>
+        <v>0.2209809</v>
       </c>
       <c r="K110" t="n">
-        <v>50.62496</v>
+        <v>50.51435</v>
       </c>
       <c r="L110" t="n">
-        <v>0.2198669</v>
+        <v>0.2206049</v>
       </c>
       <c r="M110" t="n">
-        <v>50.73249</v>
+        <v>50.58776</v>
       </c>
       <c r="N110" t="n">
-        <v>0.2209285</v>
+        <v>0.2207523</v>
       </c>
       <c r="O110" t="n">
-        <v>50.52457</v>
+        <v>50.55896</v>
       </c>
     </row>
     <row r="111">
@@ -11631,34 +11417,34 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>0.2204149</v>
+        <v>0.2209809</v>
       </c>
       <c r="G111" t="n">
-        <v>50.62496</v>
+        <v>50.51435</v>
       </c>
       <c r="H111" t="n">
-        <v>0.2204149</v>
+        <v>0.2209809</v>
       </c>
       <c r="I111" t="n">
-        <v>50.62496</v>
+        <v>50.51435</v>
       </c>
       <c r="J111" t="n">
-        <v>0.2204149</v>
+        <v>0.2209809</v>
       </c>
       <c r="K111" t="n">
-        <v>50.62496</v>
+        <v>50.51435</v>
       </c>
       <c r="L111" t="n">
-        <v>0.2198669</v>
+        <v>0.2206049</v>
       </c>
       <c r="M111" t="n">
-        <v>50.73249</v>
+        <v>50.58776</v>
       </c>
       <c r="N111" t="n">
-        <v>0.2209285</v>
+        <v>0.2207523</v>
       </c>
       <c r="O111" t="n">
-        <v>50.52457</v>
+        <v>50.55896</v>
       </c>
     </row>
     <row r="112">
@@ -11688,34 +11474,34 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>0.4036172</v>
+        <v>0.4048905</v>
       </c>
       <c r="G112" t="n">
-        <v>59.27673</v>
+        <v>59.16384</v>
       </c>
       <c r="H112" t="n">
-        <v>0.4036172</v>
+        <v>0.4048905</v>
       </c>
       <c r="I112" t="n">
-        <v>59.27673</v>
+        <v>59.16384</v>
       </c>
       <c r="J112" t="n">
-        <v>0.4036172</v>
+        <v>0.4048905</v>
       </c>
       <c r="K112" t="n">
-        <v>59.27673</v>
+        <v>59.16384</v>
       </c>
       <c r="L112" t="n">
-        <v>0.4021647</v>
+        <v>0.4041219</v>
       </c>
       <c r="M112" t="n">
-        <v>59.40663</v>
+        <v>59.23188</v>
       </c>
       <c r="N112" t="n">
-        <v>0.4047834</v>
+        <v>0.4040814</v>
       </c>
       <c r="O112" t="n">
-        <v>59.17329</v>
+        <v>59.23547</v>
       </c>
     </row>
     <row r="113">
@@ -11745,34 +11531,34 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>0.4036172</v>
+        <v>0.4048905</v>
       </c>
       <c r="G113" t="n">
-        <v>59.27673</v>
+        <v>59.16384</v>
       </c>
       <c r="H113" t="n">
-        <v>0.4036172</v>
+        <v>0.4048905</v>
       </c>
       <c r="I113" t="n">
-        <v>59.27673</v>
+        <v>59.16384</v>
       </c>
       <c r="J113" t="n">
-        <v>0.4036172</v>
+        <v>0.4048905</v>
       </c>
       <c r="K113" t="n">
-        <v>59.27673</v>
+        <v>59.16384</v>
       </c>
       <c r="L113" t="n">
-        <v>0.4021647</v>
+        <v>0.4041219</v>
       </c>
       <c r="M113" t="n">
-        <v>59.40663</v>
+        <v>59.23188</v>
       </c>
       <c r="N113" t="n">
-        <v>0.4047834</v>
+        <v>0.4040814</v>
       </c>
       <c r="O113" t="n">
-        <v>59.17329</v>
+        <v>59.23547</v>
       </c>
     </row>
     <row r="114">
@@ -11802,34 +11588,34 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>0.4036172</v>
+        <v>0.4048905</v>
       </c>
       <c r="G114" t="n">
-        <v>59.27673</v>
+        <v>59.16384</v>
       </c>
       <c r="H114" t="n">
-        <v>0.4036172</v>
+        <v>0.4048905</v>
       </c>
       <c r="I114" t="n">
-        <v>59.27673</v>
+        <v>59.16384</v>
       </c>
       <c r="J114" t="n">
-        <v>0.4036172</v>
+        <v>0.4048905</v>
       </c>
       <c r="K114" t="n">
-        <v>59.27673</v>
+        <v>59.16384</v>
       </c>
       <c r="L114" t="n">
-        <v>0.4021647</v>
+        <v>0.4041219</v>
       </c>
       <c r="M114" t="n">
-        <v>59.40663</v>
+        <v>59.23188</v>
       </c>
       <c r="N114" t="n">
-        <v>0.4047834</v>
+        <v>0.4040814</v>
       </c>
       <c r="O114" t="n">
-        <v>59.17329</v>
+        <v>59.23547</v>
       </c>
     </row>
     <row r="115">
@@ -11859,34 +11645,34 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>0.4036172</v>
+        <v>0.4048905</v>
       </c>
       <c r="G115" t="n">
-        <v>59.27673</v>
+        <v>59.16384</v>
       </c>
       <c r="H115" t="n">
-        <v>0.4036172</v>
+        <v>0.4048905</v>
       </c>
       <c r="I115" t="n">
-        <v>59.27673</v>
+        <v>59.16384</v>
       </c>
       <c r="J115" t="n">
-        <v>0.4036172</v>
+        <v>0.4048905</v>
       </c>
       <c r="K115" t="n">
-        <v>59.27673</v>
+        <v>59.16384</v>
       </c>
       <c r="L115" t="n">
-        <v>0.4021647</v>
+        <v>0.4041219</v>
       </c>
       <c r="M115" t="n">
-        <v>59.40663</v>
+        <v>59.23188</v>
       </c>
       <c r="N115" t="n">
-        <v>0.4047834</v>
+        <v>0.4040814</v>
       </c>
       <c r="O115" t="n">
-        <v>59.17329</v>
+        <v>59.23547</v>
       </c>
     </row>
     <row r="116">
@@ -11916,34 +11702,34 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>0.4036172</v>
+        <v>0.4048905</v>
       </c>
       <c r="G116" t="n">
-        <v>59.27673</v>
+        <v>59.16384</v>
       </c>
       <c r="H116" t="n">
-        <v>0.4036172</v>
+        <v>0.4048905</v>
       </c>
       <c r="I116" t="n">
-        <v>59.27673</v>
+        <v>59.16384</v>
       </c>
       <c r="J116" t="n">
-        <v>0.4036172</v>
+        <v>0.4048905</v>
       </c>
       <c r="K116" t="n">
-        <v>59.27673</v>
+        <v>59.16384</v>
       </c>
       <c r="L116" t="n">
-        <v>0.4021647</v>
+        <v>0.4041219</v>
       </c>
       <c r="M116" t="n">
-        <v>59.40663</v>
+        <v>59.23188</v>
       </c>
       <c r="N116" t="n">
-        <v>0.4047834</v>
+        <v>0.4040814</v>
       </c>
       <c r="O116" t="n">
-        <v>59.17329</v>
+        <v>59.23547</v>
       </c>
     </row>
     <row r="117">
@@ -11973,34 +11759,34 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>0.4036172</v>
+        <v>0.4048905</v>
       </c>
       <c r="G117" t="n">
-        <v>59.27673</v>
+        <v>59.16384</v>
       </c>
       <c r="H117" t="n">
-        <v>0.4036172</v>
+        <v>0.4048905</v>
       </c>
       <c r="I117" t="n">
-        <v>59.27673</v>
+        <v>59.16384</v>
       </c>
       <c r="J117" t="n">
-        <v>0.4036172</v>
+        <v>0.4048905</v>
       </c>
       <c r="K117" t="n">
-        <v>59.27673</v>
+        <v>59.16384</v>
       </c>
       <c r="L117" t="n">
-        <v>0.4021647</v>
+        <v>0.4041219</v>
       </c>
       <c r="M117" t="n">
-        <v>59.40663</v>
+        <v>59.23188</v>
       </c>
       <c r="N117" t="n">
-        <v>0.4047834</v>
+        <v>0.4040814</v>
       </c>
       <c r="O117" t="n">
-        <v>59.17329</v>
+        <v>59.23547</v>
       </c>
     </row>
     <row r="118">
@@ -12030,34 +11816,34 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>0.4036172</v>
+        <v>0.4048905</v>
       </c>
       <c r="G118" t="n">
-        <v>59.27673</v>
+        <v>59.16384</v>
       </c>
       <c r="H118" t="n">
-        <v>0.4036172</v>
+        <v>0.4048905</v>
       </c>
       <c r="I118" t="n">
-        <v>59.27673</v>
+        <v>59.16384</v>
       </c>
       <c r="J118" t="n">
-        <v>0.4036172</v>
+        <v>0.4048905</v>
       </c>
       <c r="K118" t="n">
-        <v>59.27673</v>
+        <v>59.16384</v>
       </c>
       <c r="L118" t="n">
-        <v>0.4021647</v>
+        <v>0.4041219</v>
       </c>
       <c r="M118" t="n">
-        <v>59.40663</v>
+        <v>59.23188</v>
       </c>
       <c r="N118" t="n">
-        <v>0.4047834</v>
+        <v>0.4040814</v>
       </c>
       <c r="O118" t="n">
-        <v>59.17329</v>
+        <v>59.23547</v>
       </c>
     </row>
     <row r="119">
@@ -12087,34 +11873,34 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>0.4036172</v>
+        <v>0.4048905</v>
       </c>
       <c r="G119" t="n">
-        <v>59.27673</v>
+        <v>59.16384</v>
       </c>
       <c r="H119" t="n">
-        <v>0.4036172</v>
+        <v>0.4048905</v>
       </c>
       <c r="I119" t="n">
-        <v>59.27673</v>
+        <v>59.16384</v>
       </c>
       <c r="J119" t="n">
-        <v>0.4036172</v>
+        <v>0.4048905</v>
       </c>
       <c r="K119" t="n">
-        <v>59.27673</v>
+        <v>59.16384</v>
       </c>
       <c r="L119" t="n">
-        <v>0.4021647</v>
+        <v>0.4041219</v>
       </c>
       <c r="M119" t="n">
-        <v>59.40663</v>
+        <v>59.23188</v>
       </c>
       <c r="N119" t="n">
-        <v>0.4047834</v>
+        <v>0.4040814</v>
       </c>
       <c r="O119" t="n">
-        <v>59.17329</v>
+        <v>59.23547</v>
       </c>
     </row>
     <row r="120">
@@ -12144,34 +11930,34 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>0.4036172</v>
+        <v>0.4048905</v>
       </c>
       <c r="G120" t="n">
-        <v>59.27673</v>
+        <v>59.16384</v>
       </c>
       <c r="H120" t="n">
-        <v>0.4036172</v>
+        <v>0.4048905</v>
       </c>
       <c r="I120" t="n">
-        <v>59.27673</v>
+        <v>59.16384</v>
       </c>
       <c r="J120" t="n">
-        <v>0.4036172</v>
+        <v>0.4048905</v>
       </c>
       <c r="K120" t="n">
-        <v>59.27673</v>
+        <v>59.16384</v>
       </c>
       <c r="L120" t="n">
-        <v>0.4021647</v>
+        <v>0.4041219</v>
       </c>
       <c r="M120" t="n">
-        <v>59.40663</v>
+        <v>59.23188</v>
       </c>
       <c r="N120" t="n">
-        <v>0.4047834</v>
+        <v>0.4040814</v>
       </c>
       <c r="O120" t="n">
-        <v>59.17329</v>
+        <v>59.23547</v>
       </c>
     </row>
     <row r="121">
@@ -12201,34 +11987,34 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>0.4036172</v>
+        <v>0.4048905</v>
       </c>
       <c r="G121" t="n">
-        <v>59.27673</v>
+        <v>59.16384</v>
       </c>
       <c r="H121" t="n">
-        <v>0.4036172</v>
+        <v>0.4048905</v>
       </c>
       <c r="I121" t="n">
-        <v>59.27673</v>
+        <v>59.16384</v>
       </c>
       <c r="J121" t="n">
-        <v>0.4036172</v>
+        <v>0.4048905</v>
       </c>
       <c r="K121" t="n">
-        <v>59.27673</v>
+        <v>59.16384</v>
       </c>
       <c r="L121" t="n">
-        <v>0.4021647</v>
+        <v>0.4041219</v>
       </c>
       <c r="M121" t="n">
-        <v>59.40663</v>
+        <v>59.23188</v>
       </c>
       <c r="N121" t="n">
-        <v>0.4047834</v>
+        <v>0.4040814</v>
       </c>
       <c r="O121" t="n">
-        <v>59.17329</v>
+        <v>59.23547</v>
       </c>
     </row>
     <row r="122">
@@ -12258,34 +12044,34 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>0.4036172</v>
+        <v>0.4048905</v>
       </c>
       <c r="G122" t="n">
-        <v>59.27673</v>
+        <v>59.16384</v>
       </c>
       <c r="H122" t="n">
-        <v>0.4036172</v>
+        <v>0.4048905</v>
       </c>
       <c r="I122" t="n">
-        <v>59.27673</v>
+        <v>59.16384</v>
       </c>
       <c r="J122" t="n">
-        <v>0.4036172</v>
+        <v>0.4048905</v>
       </c>
       <c r="K122" t="n">
-        <v>59.27673</v>
+        <v>59.16384</v>
       </c>
       <c r="L122" t="n">
-        <v>0.4021647</v>
+        <v>0.4041219</v>
       </c>
       <c r="M122" t="n">
-        <v>59.40663</v>
+        <v>59.23188</v>
       </c>
       <c r="N122" t="n">
-        <v>0.4047834</v>
+        <v>0.4040814</v>
       </c>
       <c r="O122" t="n">
-        <v>59.17329</v>
+        <v>59.23547</v>
       </c>
     </row>
     <row r="123">
@@ -12315,34 +12101,34 @@
         </is>
       </c>
       <c r="F123" t="n">
-        <v>0.3685392</v>
+        <v>0.3695398</v>
       </c>
       <c r="G123" t="n">
-        <v>62.78136</v>
+        <v>62.66967</v>
       </c>
       <c r="H123" t="n">
-        <v>0.3685392</v>
+        <v>0.3695398</v>
       </c>
       <c r="I123" t="n">
-        <v>62.78136</v>
+        <v>62.66967</v>
       </c>
       <c r="J123" t="n">
-        <v>0.3685392</v>
+        <v>0.3695398</v>
       </c>
       <c r="K123" t="n">
-        <v>62.78136</v>
+        <v>62.66967</v>
       </c>
       <c r="L123" t="n">
-        <v>0.367307</v>
+        <v>0.3689675</v>
       </c>
       <c r="M123" t="n">
-        <v>62.91996</v>
+        <v>62.73345</v>
       </c>
       <c r="N123" t="n">
-        <v>0.3694592</v>
+        <v>0.3687856</v>
       </c>
       <c r="O123" t="n">
-        <v>62.67863</v>
+        <v>62.75378</v>
       </c>
     </row>
     <row r="124">
@@ -12372,34 +12158,34 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>0.3685392</v>
+        <v>0.3695398</v>
       </c>
       <c r="G124" t="n">
-        <v>62.78136</v>
+        <v>62.66967</v>
       </c>
       <c r="H124" t="n">
-        <v>0.3685392</v>
+        <v>0.3695398</v>
       </c>
       <c r="I124" t="n">
-        <v>62.78136</v>
+        <v>62.66967</v>
       </c>
       <c r="J124" t="n">
-        <v>0.3685392</v>
+        <v>0.3695398</v>
       </c>
       <c r="K124" t="n">
-        <v>62.78136</v>
+        <v>62.66967</v>
       </c>
       <c r="L124" t="n">
-        <v>0.367307</v>
+        <v>0.3689675</v>
       </c>
       <c r="M124" t="n">
-        <v>62.91996</v>
+        <v>62.73345</v>
       </c>
       <c r="N124" t="n">
-        <v>0.3694592</v>
+        <v>0.3687856</v>
       </c>
       <c r="O124" t="n">
-        <v>62.67863</v>
+        <v>62.75378</v>
       </c>
     </row>
     <row r="125">
@@ -12429,34 +12215,34 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>0.3685392</v>
+        <v>0.3695398</v>
       </c>
       <c r="G125" t="n">
-        <v>62.78136</v>
+        <v>62.66967</v>
       </c>
       <c r="H125" t="n">
-        <v>0.3685392</v>
+        <v>0.3695398</v>
       </c>
       <c r="I125" t="n">
-        <v>62.78136</v>
+        <v>62.66967</v>
       </c>
       <c r="J125" t="n">
-        <v>0.3685392</v>
+        <v>0.3695398</v>
       </c>
       <c r="K125" t="n">
-        <v>62.78136</v>
+        <v>62.66967</v>
       </c>
       <c r="L125" t="n">
-        <v>0.367307</v>
+        <v>0.3689675</v>
       </c>
       <c r="M125" t="n">
-        <v>62.91996</v>
+        <v>62.73345</v>
       </c>
       <c r="N125" t="n">
-        <v>0.3694592</v>
+        <v>0.3687856</v>
       </c>
       <c r="O125" t="n">
-        <v>62.67863</v>
+        <v>62.75378</v>
       </c>
     </row>
     <row r="126">
@@ -12486,34 +12272,34 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>0.3685392</v>
+        <v>0.3695398</v>
       </c>
       <c r="G126" t="n">
-        <v>62.78136</v>
+        <v>62.66967</v>
       </c>
       <c r="H126" t="n">
-        <v>0.3685392</v>
+        <v>0.3695398</v>
       </c>
       <c r="I126" t="n">
-        <v>62.78136</v>
+        <v>62.66967</v>
       </c>
       <c r="J126" t="n">
-        <v>0.3685392</v>
+        <v>0.3695398</v>
       </c>
       <c r="K126" t="n">
-        <v>62.78136</v>
+        <v>62.66967</v>
       </c>
       <c r="L126" t="n">
-        <v>0.367307</v>
+        <v>0.3689675</v>
       </c>
       <c r="M126" t="n">
-        <v>62.91996</v>
+        <v>62.73345</v>
       </c>
       <c r="N126" t="n">
-        <v>0.3694592</v>
+        <v>0.3687856</v>
       </c>
       <c r="O126" t="n">
-        <v>62.67863</v>
+        <v>62.75378</v>
       </c>
     </row>
     <row r="127">
@@ -12543,34 +12329,34 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>0.3685392</v>
+        <v>0.3695398</v>
       </c>
       <c r="G127" t="n">
-        <v>62.78136</v>
+        <v>62.66967</v>
       </c>
       <c r="H127" t="n">
-        <v>0.3685392</v>
+        <v>0.3695398</v>
       </c>
       <c r="I127" t="n">
-        <v>62.78136</v>
+        <v>62.66967</v>
       </c>
       <c r="J127" t="n">
-        <v>0.3685392</v>
+        <v>0.3695398</v>
       </c>
       <c r="K127" t="n">
-        <v>62.78136</v>
+        <v>62.66967</v>
       </c>
       <c r="L127" t="n">
-        <v>0.367307</v>
+        <v>0.3689675</v>
       </c>
       <c r="M127" t="n">
-        <v>62.91996</v>
+        <v>62.73345</v>
       </c>
       <c r="N127" t="n">
-        <v>0.3694592</v>
+        <v>0.3687856</v>
       </c>
       <c r="O127" t="n">
-        <v>62.67863</v>
+        <v>62.75378</v>
       </c>
     </row>
     <row r="128">
@@ -12600,34 +12386,34 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>0.3685392</v>
+        <v>0.3695398</v>
       </c>
       <c r="G128" t="n">
-        <v>62.78136</v>
+        <v>62.66967</v>
       </c>
       <c r="H128" t="n">
-        <v>0.3685392</v>
+        <v>0.3695398</v>
       </c>
       <c r="I128" t="n">
-        <v>62.78136</v>
+        <v>62.66967</v>
       </c>
       <c r="J128" t="n">
-        <v>0.3685392</v>
+        <v>0.3695398</v>
       </c>
       <c r="K128" t="n">
-        <v>62.78136</v>
+        <v>62.66967</v>
       </c>
       <c r="L128" t="n">
-        <v>0.367307</v>
+        <v>0.3689675</v>
       </c>
       <c r="M128" t="n">
-        <v>62.91996</v>
+        <v>62.73345</v>
       </c>
       <c r="N128" t="n">
-        <v>0.3694592</v>
+        <v>0.3687856</v>
       </c>
       <c r="O128" t="n">
-        <v>62.67863</v>
+        <v>62.75378</v>
       </c>
     </row>
     <row r="129">
@@ -12657,34 +12443,34 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>0.3685392</v>
+        <v>0.3695398</v>
       </c>
       <c r="G129" t="n">
-        <v>62.78136</v>
+        <v>62.66967</v>
       </c>
       <c r="H129" t="n">
-        <v>0.3685392</v>
+        <v>0.3695398</v>
       </c>
       <c r="I129" t="n">
-        <v>62.78136</v>
+        <v>62.66967</v>
       </c>
       <c r="J129" t="n">
-        <v>0.3685392</v>
+        <v>0.3695398</v>
       </c>
       <c r="K129" t="n">
-        <v>62.78136</v>
+        <v>62.66967</v>
       </c>
       <c r="L129" t="n">
-        <v>0.367307</v>
+        <v>0.3689675</v>
       </c>
       <c r="M129" t="n">
-        <v>62.91996</v>
+        <v>62.73345</v>
       </c>
       <c r="N129" t="n">
-        <v>0.3694592</v>
+        <v>0.3687856</v>
       </c>
       <c r="O129" t="n">
-        <v>62.67863</v>
+        <v>62.75378</v>
       </c>
     </row>
     <row r="130">
@@ -12714,34 +12500,34 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>0.3685392</v>
+        <v>0.3695398</v>
       </c>
       <c r="G130" t="n">
-        <v>62.78136</v>
+        <v>62.66967</v>
       </c>
       <c r="H130" t="n">
-        <v>0.3685392</v>
+        <v>0.3695398</v>
       </c>
       <c r="I130" t="n">
-        <v>62.78136</v>
+        <v>62.66967</v>
       </c>
       <c r="J130" t="n">
-        <v>0.3685392</v>
+        <v>0.3695398</v>
       </c>
       <c r="K130" t="n">
-        <v>62.78136</v>
+        <v>62.66967</v>
       </c>
       <c r="L130" t="n">
-        <v>0.367307</v>
+        <v>0.3689675</v>
       </c>
       <c r="M130" t="n">
-        <v>62.91996</v>
+        <v>62.73345</v>
       </c>
       <c r="N130" t="n">
-        <v>0.3694592</v>
+        <v>0.3687856</v>
       </c>
       <c r="O130" t="n">
-        <v>62.67863</v>
+        <v>62.75378</v>
       </c>
     </row>
     <row r="131">
@@ -12771,34 +12557,34 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>0.3685392</v>
+        <v>0.3695398</v>
       </c>
       <c r="G131" t="n">
-        <v>62.78136</v>
+        <v>62.66967</v>
       </c>
       <c r="H131" t="n">
-        <v>0.3685392</v>
+        <v>0.3695398</v>
       </c>
       <c r="I131" t="n">
-        <v>62.78136</v>
+        <v>62.66967</v>
       </c>
       <c r="J131" t="n">
-        <v>0.3685392</v>
+        <v>0.3695398</v>
       </c>
       <c r="K131" t="n">
-        <v>62.78136</v>
+        <v>62.66967</v>
       </c>
       <c r="L131" t="n">
-        <v>0.367307</v>
+        <v>0.3689675</v>
       </c>
       <c r="M131" t="n">
-        <v>62.91996</v>
+        <v>62.73345</v>
       </c>
       <c r="N131" t="n">
-        <v>0.3694592</v>
+        <v>0.3687856</v>
       </c>
       <c r="O131" t="n">
-        <v>62.67863</v>
+        <v>62.75378</v>
       </c>
     </row>
     <row r="132">
@@ -12828,34 +12614,34 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>0.3685392</v>
+        <v>0.3695398</v>
       </c>
       <c r="G132" t="n">
-        <v>62.78136</v>
+        <v>62.66967</v>
       </c>
       <c r="H132" t="n">
-        <v>0.3685392</v>
+        <v>0.3695398</v>
       </c>
       <c r="I132" t="n">
-        <v>62.78136</v>
+        <v>62.66967</v>
       </c>
       <c r="J132" t="n">
-        <v>0.3685392</v>
+        <v>0.3695398</v>
       </c>
       <c r="K132" t="n">
-        <v>62.78136</v>
+        <v>62.66967</v>
       </c>
       <c r="L132" t="n">
-        <v>0.367307</v>
+        <v>0.3689675</v>
       </c>
       <c r="M132" t="n">
-        <v>62.91996</v>
+        <v>62.73345</v>
       </c>
       <c r="N132" t="n">
-        <v>0.3694592</v>
+        <v>0.3687856</v>
       </c>
       <c r="O132" t="n">
-        <v>62.67863</v>
+        <v>62.75378</v>
       </c>
     </row>
     <row r="133">
@@ -12885,34 +12671,34 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>0.3685392</v>
+        <v>0.3695398</v>
       </c>
       <c r="G133" t="n">
-        <v>62.78136</v>
+        <v>62.66967</v>
       </c>
       <c r="H133" t="n">
-        <v>0.3685392</v>
+        <v>0.3695398</v>
       </c>
       <c r="I133" t="n">
-        <v>62.78136</v>
+        <v>62.66967</v>
       </c>
       <c r="J133" t="n">
-        <v>0.3685392</v>
+        <v>0.3695398</v>
       </c>
       <c r="K133" t="n">
-        <v>62.78136</v>
+        <v>62.66967</v>
       </c>
       <c r="L133" t="n">
-        <v>0.367307</v>
+        <v>0.3689675</v>
       </c>
       <c r="M133" t="n">
-        <v>62.91996</v>
+        <v>62.73345</v>
       </c>
       <c r="N133" t="n">
-        <v>0.3694592</v>
+        <v>0.3687856</v>
       </c>
       <c r="O133" t="n">
-        <v>62.67863</v>
+        <v>62.75378</v>
       </c>
     </row>
     <row r="134">
@@ -12942,34 +12728,34 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>0.5624564</v>
+        <v>0.5644928</v>
       </c>
       <c r="G134" t="n">
-        <v>65.85908000000001</v>
+        <v>65.74954</v>
       </c>
       <c r="H134" t="n">
-        <v>0.5624564</v>
+        <v>0.5644928</v>
       </c>
       <c r="I134" t="n">
-        <v>65.85908000000001</v>
+        <v>65.74954</v>
       </c>
       <c r="J134" t="n">
-        <v>0.5624564</v>
+        <v>0.5644928</v>
       </c>
       <c r="K134" t="n">
-        <v>65.85908000000001</v>
+        <v>65.74954</v>
       </c>
       <c r="L134" t="n">
-        <v>0.5597684000000001</v>
+        <v>0.5633939</v>
       </c>
       <c r="M134" t="n">
-        <v>66.00505</v>
+        <v>65.80853999999999</v>
       </c>
       <c r="N134" t="n">
-        <v>0.5643352</v>
+        <v>0.5627115</v>
       </c>
       <c r="O134" t="n">
-        <v>65.75799000000001</v>
+        <v>65.84531</v>
       </c>
     </row>
     <row r="135">
@@ -12999,34 +12785,34 @@
         </is>
       </c>
       <c r="F135" t="n">
-        <v>0.5624564</v>
+        <v>0.5644928</v>
       </c>
       <c r="G135" t="n">
-        <v>65.85908000000001</v>
+        <v>65.74954</v>
       </c>
       <c r="H135" t="n">
-        <v>0.5624564</v>
+        <v>0.5644928</v>
       </c>
       <c r="I135" t="n">
-        <v>65.85908000000001</v>
+        <v>65.74954</v>
       </c>
       <c r="J135" t="n">
-        <v>0.5624564</v>
+        <v>0.5644928</v>
       </c>
       <c r="K135" t="n">
-        <v>65.85908000000001</v>
+        <v>65.74954</v>
       </c>
       <c r="L135" t="n">
-        <v>0.5597684000000001</v>
+        <v>0.5633939</v>
       </c>
       <c r="M135" t="n">
-        <v>66.00505</v>
+        <v>65.80853999999999</v>
       </c>
       <c r="N135" t="n">
-        <v>0.5643352</v>
+        <v>0.5627115</v>
       </c>
       <c r="O135" t="n">
-        <v>65.75799000000001</v>
+        <v>65.84531</v>
       </c>
     </row>
     <row r="136">
@@ -13056,34 +12842,34 @@
         </is>
       </c>
       <c r="F136" t="n">
-        <v>0.5624564</v>
+        <v>0.5644928</v>
       </c>
       <c r="G136" t="n">
-        <v>65.85908000000001</v>
+        <v>65.74954</v>
       </c>
       <c r="H136" t="n">
-        <v>0.5624564</v>
+        <v>0.5644928</v>
       </c>
       <c r="I136" t="n">
-        <v>65.85908000000001</v>
+        <v>65.74954</v>
       </c>
       <c r="J136" t="n">
-        <v>0.5624564</v>
+        <v>0.5644928</v>
       </c>
       <c r="K136" t="n">
-        <v>65.85908000000001</v>
+        <v>65.74954</v>
       </c>
       <c r="L136" t="n">
-        <v>0.5597684000000001</v>
+        <v>0.5633939</v>
       </c>
       <c r="M136" t="n">
-        <v>66.00505</v>
+        <v>65.80853999999999</v>
       </c>
       <c r="N136" t="n">
-        <v>0.5643352</v>
+        <v>0.5627115</v>
       </c>
       <c r="O136" t="n">
-        <v>65.75799000000001</v>
+        <v>65.84531</v>
       </c>
     </row>
     <row r="137">
@@ -13113,34 +12899,34 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>0.5624564</v>
+        <v>0.5644928</v>
       </c>
       <c r="G137" t="n">
-        <v>65.85908000000001</v>
+        <v>65.74954</v>
       </c>
       <c r="H137" t="n">
-        <v>0.5624564</v>
+        <v>0.5644928</v>
       </c>
       <c r="I137" t="n">
-        <v>65.85908000000001</v>
+        <v>65.74954</v>
       </c>
       <c r="J137" t="n">
-        <v>0.5624564</v>
+        <v>0.5644928</v>
       </c>
       <c r="K137" t="n">
-        <v>65.85908000000001</v>
+        <v>65.74954</v>
       </c>
       <c r="L137" t="n">
-        <v>0.5597684000000001</v>
+        <v>0.5633939</v>
       </c>
       <c r="M137" t="n">
-        <v>66.00505</v>
+        <v>65.80853999999999</v>
       </c>
       <c r="N137" t="n">
-        <v>0.5643352</v>
+        <v>0.5627115</v>
       </c>
       <c r="O137" t="n">
-        <v>65.75799000000001</v>
+        <v>65.84531</v>
       </c>
     </row>
     <row r="138">
@@ -13170,34 +12956,34 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>0.5624564</v>
+        <v>0.5644928</v>
       </c>
       <c r="G138" t="n">
-        <v>65.85908000000001</v>
+        <v>65.74954</v>
       </c>
       <c r="H138" t="n">
-        <v>0.5624564</v>
+        <v>0.5644928</v>
       </c>
       <c r="I138" t="n">
-        <v>65.85908000000001</v>
+        <v>65.74954</v>
       </c>
       <c r="J138" t="n">
-        <v>0.5624564</v>
+        <v>0.5644928</v>
       </c>
       <c r="K138" t="n">
-        <v>65.85908000000001</v>
+        <v>65.74954</v>
       </c>
       <c r="L138" t="n">
-        <v>0.5597684000000001</v>
+        <v>0.5633939</v>
       </c>
       <c r="M138" t="n">
-        <v>66.00505</v>
+        <v>65.80853999999999</v>
       </c>
       <c r="N138" t="n">
-        <v>0.5643352</v>
+        <v>0.5627115</v>
       </c>
       <c r="O138" t="n">
-        <v>65.75799000000001</v>
+        <v>65.84531</v>
       </c>
     </row>
     <row r="139">
@@ -13227,34 +13013,34 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>0.5624564</v>
+        <v>0.5644928</v>
       </c>
       <c r="G139" t="n">
-        <v>65.85908000000001</v>
+        <v>65.74954</v>
       </c>
       <c r="H139" t="n">
-        <v>0.5624564</v>
+        <v>0.5644928</v>
       </c>
       <c r="I139" t="n">
-        <v>65.85908000000001</v>
+        <v>65.74954</v>
       </c>
       <c r="J139" t="n">
-        <v>0.5624564</v>
+        <v>0.5644928</v>
       </c>
       <c r="K139" t="n">
-        <v>65.85908000000001</v>
+        <v>65.74954</v>
       </c>
       <c r="L139" t="n">
-        <v>0.5597684000000001</v>
+        <v>0.5633939</v>
       </c>
       <c r="M139" t="n">
-        <v>66.00505</v>
+        <v>65.80853999999999</v>
       </c>
       <c r="N139" t="n">
-        <v>0.5643352</v>
+        <v>0.5627115</v>
       </c>
       <c r="O139" t="n">
-        <v>65.75799000000001</v>
+        <v>65.84531</v>
       </c>
     </row>
     <row r="140">
@@ -13284,34 +13070,34 @@
         </is>
       </c>
       <c r="F140" t="n">
-        <v>0.5624564</v>
+        <v>0.5644928</v>
       </c>
       <c r="G140" t="n">
-        <v>65.85908000000001</v>
+        <v>65.74954</v>
       </c>
       <c r="H140" t="n">
-        <v>0.5624564</v>
+        <v>0.5644928</v>
       </c>
       <c r="I140" t="n">
-        <v>65.85908000000001</v>
+        <v>65.74954</v>
       </c>
       <c r="J140" t="n">
-        <v>0.5624564</v>
+        <v>0.5644928</v>
       </c>
       <c r="K140" t="n">
-        <v>65.85908000000001</v>
+        <v>65.74954</v>
       </c>
       <c r="L140" t="n">
-        <v>0.5597684000000001</v>
+        <v>0.5633939</v>
       </c>
       <c r="M140" t="n">
-        <v>66.00505</v>
+        <v>65.80853999999999</v>
       </c>
       <c r="N140" t="n">
-        <v>0.5643352</v>
+        <v>0.5627115</v>
       </c>
       <c r="O140" t="n">
-        <v>65.75799000000001</v>
+        <v>65.84531</v>
       </c>
     </row>
     <row r="141">
@@ -13341,34 +13127,34 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>0.5624564</v>
+        <v>0.5644928</v>
       </c>
       <c r="G141" t="n">
-        <v>65.85908000000001</v>
+        <v>65.74954</v>
       </c>
       <c r="H141" t="n">
-        <v>0.5624564</v>
+        <v>0.5644928</v>
       </c>
       <c r="I141" t="n">
-        <v>65.85908000000001</v>
+        <v>65.74954</v>
       </c>
       <c r="J141" t="n">
-        <v>0.5624564</v>
+        <v>0.5644928</v>
       </c>
       <c r="K141" t="n">
-        <v>65.85908000000001</v>
+        <v>65.74954</v>
       </c>
       <c r="L141" t="n">
-        <v>0.5597684000000001</v>
+        <v>0.5633939</v>
       </c>
       <c r="M141" t="n">
-        <v>66.00505</v>
+        <v>65.80853999999999</v>
       </c>
       <c r="N141" t="n">
-        <v>0.5643352</v>
+        <v>0.5627115</v>
       </c>
       <c r="O141" t="n">
-        <v>65.75799000000001</v>
+        <v>65.84531</v>
       </c>
     </row>
     <row r="142">
@@ -13398,34 +13184,34 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>0.5624564</v>
+        <v>0.5644928</v>
       </c>
       <c r="G142" t="n">
-        <v>65.85908000000001</v>
+        <v>65.74954</v>
       </c>
       <c r="H142" t="n">
-        <v>0.5624564</v>
+        <v>0.5644928</v>
       </c>
       <c r="I142" t="n">
-        <v>65.85908000000001</v>
+        <v>65.74954</v>
       </c>
       <c r="J142" t="n">
-        <v>0.5624564</v>
+        <v>0.5644928</v>
       </c>
       <c r="K142" t="n">
-        <v>65.85908000000001</v>
+        <v>65.74954</v>
       </c>
       <c r="L142" t="n">
-        <v>0.5597684000000001</v>
+        <v>0.5633939</v>
       </c>
       <c r="M142" t="n">
-        <v>66.00505</v>
+        <v>65.80853999999999</v>
       </c>
       <c r="N142" t="n">
-        <v>0.5643352</v>
+        <v>0.5627115</v>
       </c>
       <c r="O142" t="n">
-        <v>65.75799000000001</v>
+        <v>65.84531</v>
       </c>
     </row>
     <row r="143">
@@ -13455,34 +13241,34 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>0.5624564</v>
+        <v>0.5644928</v>
       </c>
       <c r="G143" t="n">
-        <v>65.85908000000001</v>
+        <v>65.74954</v>
       </c>
       <c r="H143" t="n">
-        <v>0.5624564</v>
+        <v>0.5644928</v>
       </c>
       <c r="I143" t="n">
-        <v>65.85908000000001</v>
+        <v>65.74954</v>
       </c>
       <c r="J143" t="n">
-        <v>0.5624564</v>
+        <v>0.5644928</v>
       </c>
       <c r="K143" t="n">
-        <v>65.85908000000001</v>
+        <v>65.74954</v>
       </c>
       <c r="L143" t="n">
-        <v>0.5597684000000001</v>
+        <v>0.5633939</v>
       </c>
       <c r="M143" t="n">
-        <v>66.00505</v>
+        <v>65.80853999999999</v>
       </c>
       <c r="N143" t="n">
-        <v>0.5643352</v>
+        <v>0.5627115</v>
       </c>
       <c r="O143" t="n">
-        <v>65.75799000000001</v>
+        <v>65.84531</v>
       </c>
     </row>
     <row r="144">
@@ -13512,34 +13298,34 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>0.5624564</v>
+        <v>0.5644928</v>
       </c>
       <c r="G144" t="n">
-        <v>65.85908000000001</v>
+        <v>65.74954</v>
       </c>
       <c r="H144" t="n">
-        <v>0.5624564</v>
+        <v>0.5644928</v>
       </c>
       <c r="I144" t="n">
-        <v>65.85908000000001</v>
+        <v>65.74954</v>
       </c>
       <c r="J144" t="n">
-        <v>0.5624564</v>
+        <v>0.5644928</v>
       </c>
       <c r="K144" t="n">
-        <v>65.85908000000001</v>
+        <v>65.74954</v>
       </c>
       <c r="L144" t="n">
-        <v>0.5597684000000001</v>
+        <v>0.5633939</v>
       </c>
       <c r="M144" t="n">
-        <v>66.00505</v>
+        <v>65.80853999999999</v>
       </c>
       <c r="N144" t="n">
-        <v>0.5643352</v>
+        <v>0.5627115</v>
       </c>
       <c r="O144" t="n">
-        <v>65.75799000000001</v>
+        <v>65.84531</v>
       </c>
     </row>
     <row r="145">
@@ -13569,34 +13355,34 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>0.8437574</v>
+        <v>0.8472996</v>
       </c>
       <c r="G145" t="n">
-        <v>70.99541000000001</v>
+        <v>70.89190000000001</v>
       </c>
       <c r="H145" t="n">
-        <v>0.8437574</v>
+        <v>0.8472996</v>
       </c>
       <c r="I145" t="n">
-        <v>70.99541000000001</v>
+        <v>70.89190000000001</v>
       </c>
       <c r="J145" t="n">
-        <v>0.8437574</v>
+        <v>0.8472996</v>
       </c>
       <c r="K145" t="n">
-        <v>70.99541000000001</v>
+        <v>70.89190000000001</v>
       </c>
       <c r="L145" t="n">
-        <v>0.8384236</v>
+        <v>0.8456289</v>
       </c>
       <c r="M145" t="n">
-        <v>71.15294</v>
+        <v>70.94061000000001</v>
       </c>
       <c r="N145" t="n">
-        <v>0.8470449</v>
+        <v>0.8433125</v>
       </c>
       <c r="O145" t="n">
-        <v>70.89931</v>
+        <v>71.00847</v>
       </c>
     </row>
     <row r="146">
@@ -13626,34 +13412,34 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>0.8437574</v>
+        <v>0.8472996</v>
       </c>
       <c r="G146" t="n">
-        <v>70.99541000000001</v>
+        <v>70.89190000000001</v>
       </c>
       <c r="H146" t="n">
-        <v>0.8437574</v>
+        <v>0.8472996</v>
       </c>
       <c r="I146" t="n">
-        <v>70.99541000000001</v>
+        <v>70.89190000000001</v>
       </c>
       <c r="J146" t="n">
-        <v>0.8437574</v>
+        <v>0.8472996</v>
       </c>
       <c r="K146" t="n">
-        <v>70.99541000000001</v>
+        <v>70.89190000000001</v>
       </c>
       <c r="L146" t="n">
-        <v>0.8384236</v>
+        <v>0.8456289</v>
       </c>
       <c r="M146" t="n">
-        <v>71.15294</v>
+        <v>70.94061000000001</v>
       </c>
       <c r="N146" t="n">
-        <v>0.8470449</v>
+        <v>0.8433125</v>
       </c>
       <c r="O146" t="n">
-        <v>70.89931</v>
+        <v>71.00847</v>
       </c>
     </row>
     <row r="147">
@@ -13683,34 +13469,34 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>0.8437574</v>
+        <v>0.8472996</v>
       </c>
       <c r="G147" t="n">
-        <v>70.99541000000001</v>
+        <v>70.89190000000001</v>
       </c>
       <c r="H147" t="n">
-        <v>0.8437574</v>
+        <v>0.8472996</v>
       </c>
       <c r="I147" t="n">
-        <v>70.99541000000001</v>
+        <v>70.89190000000001</v>
       </c>
       <c r="J147" t="n">
-        <v>0.8437574</v>
+        <v>0.8472996</v>
       </c>
       <c r="K147" t="n">
-        <v>70.99541000000001</v>
+        <v>70.89190000000001</v>
       </c>
       <c r="L147" t="n">
-        <v>0.8384236</v>
+        <v>0.8456289</v>
       </c>
       <c r="M147" t="n">
-        <v>71.15294</v>
+        <v>70.94061000000001</v>
       </c>
       <c r="N147" t="n">
-        <v>0.8470449</v>
+        <v>0.8433125</v>
       </c>
       <c r="O147" t="n">
-        <v>70.89931</v>
+        <v>71.00847</v>
       </c>
     </row>
     <row r="148">
@@ -13740,34 +13526,34 @@
         </is>
       </c>
       <c r="F148" t="n">
-        <v>0.8437574</v>
+        <v>0.8472996</v>
       </c>
       <c r="G148" t="n">
-        <v>70.99541000000001</v>
+        <v>70.89190000000001</v>
       </c>
       <c r="H148" t="n">
-        <v>0.8437574</v>
+        <v>0.8472996</v>
       </c>
       <c r="I148" t="n">
-        <v>70.99541000000001</v>
+        <v>70.89190000000001</v>
       </c>
       <c r="J148" t="n">
-        <v>0.8437574</v>
+        <v>0.8472996</v>
       </c>
       <c r="K148" t="n">
-        <v>70.99541000000001</v>
+        <v>70.89190000000001</v>
       </c>
       <c r="L148" t="n">
-        <v>0.8384236</v>
+        <v>0.8456289</v>
       </c>
       <c r="M148" t="n">
-        <v>71.15294</v>
+        <v>70.94061000000001</v>
       </c>
       <c r="N148" t="n">
-        <v>0.8470449</v>
+        <v>0.8433125</v>
       </c>
       <c r="O148" t="n">
-        <v>70.89931</v>
+        <v>71.00847</v>
       </c>
     </row>
     <row r="149">
@@ -13797,34 +13583,34 @@
         </is>
       </c>
       <c r="F149" t="n">
-        <v>0.8437574</v>
+        <v>0.8472996</v>
       </c>
       <c r="G149" t="n">
-        <v>70.99541000000001</v>
+        <v>70.89190000000001</v>
       </c>
       <c r="H149" t="n">
-        <v>0.8437574</v>
+        <v>0.8472996</v>
       </c>
       <c r="I149" t="n">
-        <v>70.99541000000001</v>
+        <v>70.89190000000001</v>
       </c>
       <c r="J149" t="n">
-        <v>0.8437574</v>
+        <v>0.8472996</v>
       </c>
       <c r="K149" t="n">
-        <v>70.99541000000001</v>
+        <v>70.89190000000001</v>
       </c>
       <c r="L149" t="n">
-        <v>0.8384236</v>
+        <v>0.8456289</v>
       </c>
       <c r="M149" t="n">
-        <v>71.15294</v>
+        <v>70.94061000000001</v>
       </c>
       <c r="N149" t="n">
-        <v>0.8470449</v>
+        <v>0.8433125</v>
       </c>
       <c r="O149" t="n">
-        <v>70.89931</v>
+        <v>71.00847</v>
       </c>
     </row>
     <row r="150">
@@ -13854,34 +13640,34 @@
         </is>
       </c>
       <c r="F150" t="n">
-        <v>0.8437574</v>
+        <v>0.8472996</v>
       </c>
       <c r="G150" t="n">
-        <v>70.99541000000001</v>
+        <v>70.89190000000001</v>
       </c>
       <c r="H150" t="n">
-        <v>0.8437574</v>
+        <v>0.8472996</v>
       </c>
       <c r="I150" t="n">
-        <v>70.99541000000001</v>
+        <v>70.89190000000001</v>
       </c>
       <c r="J150" t="n">
-        <v>0.8437574</v>
+        <v>0.8472996</v>
       </c>
       <c r="K150" t="n">
-        <v>70.99541000000001</v>
+        <v>70.89190000000001</v>
       </c>
       <c r="L150" t="n">
-        <v>0.8384236</v>
+        <v>0.8456289</v>
       </c>
       <c r="M150" t="n">
-        <v>71.15294</v>
+        <v>70.94061000000001</v>
       </c>
       <c r="N150" t="n">
-        <v>0.8470449</v>
+        <v>0.8433125</v>
       </c>
       <c r="O150" t="n">
-        <v>70.89931</v>
+        <v>71.00847</v>
       </c>
     </row>
     <row r="151">
@@ -13911,34 +13697,34 @@
         </is>
       </c>
       <c r="F151" t="n">
-        <v>0.8437574</v>
+        <v>0.8472996</v>
       </c>
       <c r="G151" t="n">
-        <v>70.99541000000001</v>
+        <v>70.89190000000001</v>
       </c>
       <c r="H151" t="n">
-        <v>0.8437574</v>
+        <v>0.8472996</v>
       </c>
       <c r="I151" t="n">
-        <v>70.99541000000001</v>
+        <v>70.89190000000001</v>
       </c>
       <c r="J151" t="n">
-        <v>0.8437574</v>
+        <v>0.8472996</v>
       </c>
       <c r="K151" t="n">
-        <v>70.99541000000001</v>
+        <v>70.89190000000001</v>
       </c>
       <c r="L151" t="n">
-        <v>0.8384236</v>
+        <v>0.8456289</v>
       </c>
       <c r="M151" t="n">
-        <v>71.15294</v>
+        <v>70.94061000000001</v>
       </c>
       <c r="N151" t="n">
-        <v>0.8470449</v>
+        <v>0.8433125</v>
       </c>
       <c r="O151" t="n">
-        <v>70.89931</v>
+        <v>71.00847</v>
       </c>
     </row>
     <row r="152">
@@ -13968,34 +13754,34 @@
         </is>
       </c>
       <c r="F152" t="n">
-        <v>0.8437574</v>
+        <v>0.8472996</v>
       </c>
       <c r="G152" t="n">
-        <v>70.99541000000001</v>
+        <v>70.89190000000001</v>
       </c>
       <c r="H152" t="n">
-        <v>0.8437574</v>
+        <v>0.8472996</v>
       </c>
       <c r="I152" t="n">
-        <v>70.99541000000001</v>
+        <v>70.89190000000001</v>
       </c>
       <c r="J152" t="n">
-        <v>0.8437574</v>
+        <v>0.8472996</v>
       </c>
       <c r="K152" t="n">
-        <v>70.99541000000001</v>
+        <v>70.89190000000001</v>
       </c>
       <c r="L152" t="n">
-        <v>0.8384236</v>
+        <v>0.8456289</v>
       </c>
       <c r="M152" t="n">
-        <v>71.15294</v>
+        <v>70.94061000000001</v>
       </c>
       <c r="N152" t="n">
-        <v>0.8470449</v>
+        <v>0.8433125</v>
       </c>
       <c r="O152" t="n">
-        <v>70.89931</v>
+        <v>71.00847</v>
       </c>
     </row>
     <row r="153">
@@ -14025,34 +13811,34 @@
         </is>
       </c>
       <c r="F153" t="n">
-        <v>0.8437574</v>
+        <v>0.8472996</v>
       </c>
       <c r="G153" t="n">
-        <v>70.99541000000001</v>
+        <v>70.89190000000001</v>
       </c>
       <c r="H153" t="n">
-        <v>0.8437574</v>
+        <v>0.8472996</v>
       </c>
       <c r="I153" t="n">
-        <v>70.99541000000001</v>
+        <v>70.89190000000001</v>
       </c>
       <c r="J153" t="n">
-        <v>0.8437574</v>
+        <v>0.8472996</v>
       </c>
       <c r="K153" t="n">
-        <v>70.99541000000001</v>
+        <v>70.89190000000001</v>
       </c>
       <c r="L153" t="n">
-        <v>0.8384236</v>
+        <v>0.8456289</v>
       </c>
       <c r="M153" t="n">
-        <v>71.15294</v>
+        <v>70.94061000000001</v>
       </c>
       <c r="N153" t="n">
-        <v>0.8470449</v>
+        <v>0.8433125</v>
       </c>
       <c r="O153" t="n">
-        <v>70.89931</v>
+        <v>71.00847</v>
       </c>
     </row>
     <row r="154">
@@ -14082,34 +13868,34 @@
         </is>
       </c>
       <c r="F154" t="n">
-        <v>0.8437574</v>
+        <v>0.8472996</v>
       </c>
       <c r="G154" t="n">
-        <v>70.99541000000001</v>
+        <v>70.89190000000001</v>
       </c>
       <c r="H154" t="n">
-        <v>0.8437574</v>
+        <v>0.8472996</v>
       </c>
       <c r="I154" t="n">
-        <v>70.99541000000001</v>
+        <v>70.89190000000001</v>
       </c>
       <c r="J154" t="n">
-        <v>0.8437574</v>
+        <v>0.8472996</v>
       </c>
       <c r="K154" t="n">
-        <v>70.99541000000001</v>
+        <v>70.89190000000001</v>
       </c>
       <c r="L154" t="n">
-        <v>0.8384236</v>
+        <v>0.8456289</v>
       </c>
       <c r="M154" t="n">
-        <v>71.15294</v>
+        <v>70.94061000000001</v>
       </c>
       <c r="N154" t="n">
-        <v>0.8470449</v>
+        <v>0.8433125</v>
       </c>
       <c r="O154" t="n">
-        <v>70.89931</v>
+        <v>71.00847</v>
       </c>
     </row>
     <row r="155">
@@ -14139,34 +13925,34 @@
         </is>
       </c>
       <c r="F155" t="n">
-        <v>0.8437574</v>
+        <v>0.8472996</v>
       </c>
       <c r="G155" t="n">
-        <v>70.99541000000001</v>
+        <v>70.89190000000001</v>
       </c>
       <c r="H155" t="n">
-        <v>0.8437574</v>
+        <v>0.8472996</v>
       </c>
       <c r="I155" t="n">
-        <v>70.99541000000001</v>
+        <v>70.89190000000001</v>
       </c>
       <c r="J155" t="n">
-        <v>0.8437574</v>
+        <v>0.8472996</v>
       </c>
       <c r="K155" t="n">
-        <v>70.99541000000001</v>
+        <v>70.89190000000001</v>
       </c>
       <c r="L155" t="n">
-        <v>0.8384236</v>
+        <v>0.8456289</v>
       </c>
       <c r="M155" t="n">
-        <v>71.15294</v>
+        <v>70.94061000000001</v>
       </c>
       <c r="N155" t="n">
-        <v>0.8470449</v>
+        <v>0.8433125</v>
       </c>
       <c r="O155" t="n">
-        <v>70.89931</v>
+        <v>71.00847</v>
       </c>
     </row>
   </sheetData>
